--- a/fileHLC/可转债记录excel.xlsx
+++ b/fileHLC/可转债记录excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="68">
   <si>
     <t>可转债</t>
   </si>
@@ -620,6 +620,14 @@
     </r>
   </si>
   <si>
+    <t>2021/11/19
+232</t>
+  </si>
+  <si>
+    <t>2021/11/22
+240</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -684,6 +692,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>苏租转债</t>
     </r>
     <r>
@@ -706,10 +720,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -756,31 +770,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -794,7 +786,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -802,14 +801,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -823,7 +837,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -837,32 +859,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -873,6 +871,14 @@
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -901,7 +907,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -958,7 +972,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,7 +990,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,91 +1092,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,25 +1116,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,19 +1134,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1322,17 +1336,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1344,15 +1347,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1375,8 +1369,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1385,7 +1379,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1404,153 +1398,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2827,11 +2841,11 @@
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="J20" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomRight" activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7142857142857" defaultRowHeight="13.9" customHeight="1"/>
@@ -3579,18 +3593,24 @@
       <c r="L25" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M25" s="19"/>
+      <c r="M25" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="N25" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O25" s="12"/>
+      <c r="O25" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
+      <c r="R25" s="12">
+        <v>472</v>
+      </c>
     </row>
     <row r="26" ht="40" customHeight="1" spans="1:18">
       <c r="A26" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="19"/>
@@ -3616,7 +3636,7 @@
     </row>
     <row r="27" ht="40" customHeight="1" spans="1:18">
       <c r="A27" s="10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="19"/>
@@ -3640,7 +3660,7 @@
     </row>
     <row r="28" ht="40" customHeight="1" spans="1:18">
       <c r="A28" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
@@ -3666,7 +3686,7 @@
     </row>
     <row r="29" ht="40" customHeight="1" spans="1:18">
       <c r="A29" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
@@ -3710,7 +3730,7 @@
     </row>
     <row r="31" ht="40" customHeight="1" spans="1:18">
       <c r="A31" s="22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
@@ -3730,7 +3750,7 @@
       <c r="Q31" s="30"/>
       <c r="R31" s="31">
         <f>SUM(R4:R30)</f>
-        <v>5547.73</v>
+        <v>6019.73</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="18:18">

--- a/fileHLC/可转债记录excel.xlsx
+++ b/fileHLC/可转债记录excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - 可转债" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="69">
   <si>
     <t>可转债</t>
   </si>
@@ -597,6 +597,10 @@
       <t xml:space="preserve">
 2021/10/29</t>
     </r>
+  </si>
+  <si>
+    <t>2021/11/23
+409.62</t>
   </si>
   <si>
     <r>
@@ -721,9 +725,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -770,11 +774,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -788,37 +791,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -836,8 +809,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -851,11 +825,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -901,6 +890,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -972,13 +976,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,49 +988,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,7 +1042,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,43 +1114,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1110,7 +1132,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1122,37 +1156,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1337,21 +1341,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1399,6 +1388,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1423,148 +1427,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2841,11 +2845,11 @@
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="J20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R21" sqref="R21"/>
+      <selection pane="bottomRight" activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7142857142857" defaultRowHeight="13.9" customHeight="1"/>
@@ -3565,7 +3569,9 @@
       <c r="H24" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="19"/>
+      <c r="I24" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
@@ -3574,11 +3580,13 @@
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
+      <c r="R24" s="12">
+        <v>409.62</v>
+      </c>
     </row>
     <row r="25" ht="40" customHeight="1" spans="1:18">
       <c r="A25" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
@@ -3594,13 +3602,13 @@
         <v>13</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N25" s="13" t="s">
         <v>13</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
@@ -3610,7 +3618,7 @@
     </row>
     <row r="26" ht="40" customHeight="1" spans="1:18">
       <c r="A26" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="19"/>
@@ -3636,7 +3644,7 @@
     </row>
     <row r="27" ht="40" customHeight="1" spans="1:18">
       <c r="A27" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="19"/>
@@ -3660,7 +3668,7 @@
     </row>
     <row r="28" ht="40" customHeight="1" spans="1:18">
       <c r="A28" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
@@ -3686,7 +3694,7 @@
     </row>
     <row r="29" ht="40" customHeight="1" spans="1:18">
       <c r="A29" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
@@ -3730,7 +3738,7 @@
     </row>
     <row r="31" ht="40" customHeight="1" spans="1:18">
       <c r="A31" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
@@ -3750,7 +3758,7 @@
       <c r="Q31" s="30"/>
       <c r="R31" s="31">
         <f>SUM(R4:R30)</f>
-        <v>6019.73</v>
+        <v>6429.35</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="18:18">

--- a/fileHLC/可转债记录excel.xlsx
+++ b/fileHLC/可转债记录excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="75">
   <si>
     <t>可转债</t>
   </si>
@@ -653,6 +653,14 @@
     </r>
   </si>
   <si>
+    <t>2021/12/2
+266.14</t>
+  </si>
+  <si>
+    <t>2021/11/29
+250</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -674,6 +682,10 @@
     </r>
   </si>
   <si>
+    <t>2021/12/6
+350</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -695,6 +707,10 @@
     </r>
   </si>
   <si>
+    <t>2021/16/7
+396</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -713,6 +729,31 @@
       </rPr>
       <t xml:space="preserve">
 2021/11/15</t>
+    </r>
+  </si>
+  <si>
+    <t>2021/12/13
+171</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科沃转债</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2021/12/1</t>
     </r>
   </si>
   <si>
@@ -726,8 +767,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -782,13 +823,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -796,22 +830,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -832,11 +851,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -852,14 +886,6 @@
       <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -887,9 +913,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -903,8 +928,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -917,9 +959,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -976,25 +1017,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,7 +1035,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,25 +1047,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,13 +1089,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,7 +1131,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,55 +1167,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,19 +1191,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1373,21 +1414,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1405,15 +1431,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1422,6 +1439,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -1430,10 +1471,10 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1442,133 +1483,133 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1636,14 +1677,14 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2845,11 +2886,11 @@
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P24" sqref="P24"/>
+      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7142857142857" defaultRowHeight="13.9" customHeight="1"/>
@@ -2878,8 +2919,8 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
       <c r="R1" s="3"/>
     </row>
     <row r="2" ht="17" customHeight="1" spans="1:18">
@@ -3214,7 +3255,7 @@
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="13" t="s">
         <v>31</v>
       </c>
       <c r="I12" s="13" t="s">
@@ -3625,7 +3666,9 @@
       <c r="D26" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="19"/>
+      <c r="E26" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
@@ -3637,14 +3680,18 @@
       <c r="N26" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O26" s="19"/>
+      <c r="O26" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
+      <c r="R26" s="12">
+        <v>516.14</v>
+      </c>
     </row>
     <row r="27" ht="40" customHeight="1" spans="1:18">
       <c r="A27" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="19"/>
@@ -3659,16 +3706,20 @@
       <c r="L27" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M27" s="19"/>
+      <c r="M27" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="N27" s="19"/>
       <c r="O27" s="19"/>
       <c r="P27" s="19"/>
       <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
+      <c r="R27" s="12">
+        <v>350</v>
+      </c>
     </row>
     <row r="28" ht="40" customHeight="1" spans="1:18">
       <c r="A28" s="10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
@@ -3685,23 +3736,31 @@
       <c r="N28" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O28" s="19"/>
+      <c r="O28" s="23" t="s">
+        <v>70</v>
+      </c>
       <c r="P28" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
+      <c r="Q28" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="R28" s="12">
+        <v>746</v>
+      </c>
     </row>
     <row r="29" ht="40" customHeight="1" spans="1:18">
       <c r="A29" s="10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
       <c r="D29" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="19"/>
+      <c r="E29" s="12" t="s">
+        <v>72</v>
+      </c>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
@@ -3714,10 +3773,14 @@
       <c r="O29" s="19"/>
       <c r="P29" s="19"/>
       <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
+      <c r="R29" s="12">
+        <v>171</v>
+      </c>
     </row>
     <row r="30" ht="40" customHeight="1" spans="1:18">
-      <c r="A30" s="21"/>
+      <c r="A30" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="B30" s="18"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -3732,13 +3795,15 @@
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
       <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
+      <c r="P30" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="29"/>
     </row>
     <row r="31" ht="40" customHeight="1" spans="1:18">
-      <c r="A31" s="22" t="s">
-        <v>68</v>
+      <c r="A31" s="21" t="s">
+        <v>74</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
@@ -3758,7 +3823,7 @@
       <c r="Q31" s="30"/>
       <c r="R31" s="31">
         <f>SUM(R4:R30)</f>
-        <v>6429.35</v>
+        <v>8212.49</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="18:18">

--- a/fileHLC/可转债记录excel.xlsx
+++ b/fileHLC/可转债记录excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - 可转债" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="77">
   <si>
     <t>可转债</t>
   </si>
@@ -755,6 +755,14 @@
       <t xml:space="preserve">
 2021/12/1</t>
     </r>
+  </si>
+  <si>
+    <t>贵燃转债
+2021/12/29</t>
+  </si>
+  <si>
+    <t>兴业转债
+2021/12/29</t>
   </si>
   <si>
     <t>总合</t>
@@ -765,10 +773,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -823,6 +831,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -836,9 +851,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -851,8 +881,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -866,8 +897,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -882,13 +928,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -897,8 +936,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -914,15 +960,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -931,36 +969,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1017,7 +1025,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,13 +1073,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,13 +1097,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,19 +1109,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,31 +1139,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,31 +1181,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,19 +1193,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1191,18 +1205,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1360,6 +1368,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1377,6 +1398,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1414,17 +1465,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1439,30 +1484,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -1471,149 +1492,149 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1701,13 +1722,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2883,14 +2913,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="J24" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomRight" activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7142857142857" defaultRowHeight="13.9" customHeight="1"/>
@@ -3798,11 +3828,13 @@
       <c r="P30" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="29"/>
+      <c r="Q30" s="29">
+        <v>44559</v>
+      </c>
+      <c r="R30" s="30"/>
     </row>
     <row r="31" ht="40" customHeight="1" spans="1:18">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="10" t="s">
         <v>74</v>
       </c>
       <c r="B31" s="18"/>
@@ -3815,22 +3847,82 @@
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
+      <c r="L31" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="M31" s="19"/>
       <c r="N31" s="19"/>
       <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="31">
-        <f>SUM(R4:R30)</f>
-        <v>8212.49</v>
-      </c>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="32"/>
     </row>
-    <row r="32" customHeight="1" spans="18:18">
+    <row r="32" ht="40" customHeight="1" spans="1:18">
+      <c r="A32" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="F32" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="19"/>
+      <c r="H32" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="19"/>
+      <c r="J32" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="19"/>
+      <c r="L32" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" s="19"/>
+      <c r="N32" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O32" s="19"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="31"/>
       <c r="R32" s="32"/>
     </row>
-    <row r="35" customHeight="1" spans="18:18">
-      <c r="R35" s="32"/>
+    <row r="33" ht="40" customHeight="1" spans="1:18">
+      <c r="A33" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="34">
+        <f>SUM(R4:R32)</f>
+        <v>8212.49</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="18:18">
+      <c r="R34" s="35"/>
+    </row>
+    <row r="37" customHeight="1" spans="18:18">
+      <c r="R37" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/fileHLC/可转债记录excel.xlsx
+++ b/fileHLC/可转债记录excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="86">
   <si>
     <t>可转债</t>
   </si>
@@ -757,12 +757,48 @@
     </r>
   </si>
   <si>
+    <t>2021/12/29
+300</t>
+  </si>
+  <si>
     <t>贵燃转债
 2021/12/29</t>
   </si>
   <si>
     <t>兴业转债
 2021/12/29</t>
+  </si>
+  <si>
+    <t>2022/1/14
+110</t>
+  </si>
+  <si>
+    <t>2022/1/14
+117</t>
+  </si>
+  <si>
+    <t>2022/1/14
+97</t>
+  </si>
+  <si>
+    <t>2022/1/14
+95.88</t>
+  </si>
+  <si>
+    <t>2022/1/14
+120</t>
+  </si>
+  <si>
+    <t>2022/1/14
+118</t>
+  </si>
+  <si>
+    <t>台21转债
+2021/12/31</t>
+  </si>
+  <si>
+    <t>隆22转债
+2021/1/7</t>
   </si>
   <si>
     <t>总合</t>
@@ -773,9 +809,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -826,7 +862,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -839,6 +875,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,30 +911,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -897,42 +925,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -951,6 +948,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -959,8 +972,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1025,13 +1061,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,13 +1103,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,7 +1121,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,19 +1199,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,25 +1211,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,84 +1241,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1334,6 +1370,21 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="10"/>
       </left>
       <right style="thin">
@@ -1417,21 +1468,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1474,6 +1510,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1489,152 +1540,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1698,6 +1749,9 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1725,19 +1779,22 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2913,14 +2970,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="J24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="H26" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S33" sqref="S33"/>
+      <selection pane="bottomRight" activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7142857142857" defaultRowHeight="13.9" customHeight="1"/>
@@ -2949,8 +3006,8 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
       <c r="R1" s="3"/>
     </row>
     <row r="2" ht="17" customHeight="1" spans="1:18">
@@ -2986,7 +3043,7 @@
       <c r="P2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="24"/>
+      <c r="Q2" s="25"/>
       <c r="R2" s="5" t="s">
         <v>9</v>
       </c>
@@ -3041,7 +3098,7 @@
       <c r="Q3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="25"/>
+      <c r="R3" s="26"/>
     </row>
     <row r="4" ht="40" customHeight="1" spans="1:18">
       <c r="A4" s="10" t="s">
@@ -3067,7 +3124,7 @@
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
-      <c r="R4" s="26">
+      <c r="R4" s="27">
         <v>-26.9</v>
       </c>
     </row>
@@ -3095,7 +3152,7 @@
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
-      <c r="R5" s="27">
+      <c r="R5" s="28">
         <v>82</v>
       </c>
     </row>
@@ -3127,7 +3184,7 @@
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
-      <c r="R6" s="26">
+      <c r="R6" s="27">
         <v>-147.85</v>
       </c>
     </row>
@@ -3155,7 +3212,7 @@
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
-      <c r="R7" s="26">
+      <c r="R7" s="27">
         <v>-51</v>
       </c>
     </row>
@@ -3183,7 +3240,7 @@
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
-      <c r="R8" s="26">
+      <c r="R8" s="27">
         <v>20</v>
       </c>
     </row>
@@ -3211,7 +3268,7 @@
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
-      <c r="R9" s="26">
+      <c r="R9" s="27">
         <v>104</v>
       </c>
     </row>
@@ -3239,7 +3296,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
-      <c r="R10" s="26">
+      <c r="R10" s="27">
         <v>660</v>
       </c>
     </row>
@@ -3267,7 +3324,7 @@
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
-      <c r="R11" s="28">
+      <c r="R11" s="29">
         <v>63</v>
       </c>
     </row>
@@ -3299,7 +3356,7 @@
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
-      <c r="R12" s="26">
+      <c r="R12" s="27">
         <v>821.58</v>
       </c>
     </row>
@@ -3331,7 +3388,7 @@
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
-      <c r="R13" s="26">
+      <c r="R13" s="27">
         <v>262</v>
       </c>
     </row>
@@ -3363,7 +3420,7 @@
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
-      <c r="R14" s="26">
+      <c r="R14" s="27">
         <v>999.9</v>
       </c>
     </row>
@@ -3391,7 +3448,7 @@
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
-      <c r="R15" s="26">
+      <c r="R15" s="27">
         <v>130</v>
       </c>
     </row>
@@ -3419,7 +3476,7 @@
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
-      <c r="R16" s="26">
+      <c r="R16" s="27">
         <v>300</v>
       </c>
     </row>
@@ -3455,7 +3512,7 @@
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
-      <c r="R17" s="26">
+      <c r="R17" s="27">
         <v>570</v>
       </c>
     </row>
@@ -3483,7 +3540,7 @@
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
-      <c r="R18" s="26">
+      <c r="R18" s="27">
         <v>151</v>
       </c>
     </row>
@@ -3515,7 +3572,7 @@
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
-      <c r="R19" s="26">
+      <c r="R19" s="27">
         <v>680</v>
       </c>
     </row>
@@ -3543,7 +3600,7 @@
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
-      <c r="R20" s="26">
+      <c r="R20" s="27">
         <v>320</v>
       </c>
     </row>
@@ -3595,7 +3652,7 @@
       </c>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
-      <c r="R22" s="26">
+      <c r="R22" s="27">
         <v>300</v>
       </c>
     </row>
@@ -3623,7 +3680,7 @@
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
-      <c r="R23" s="26">
+      <c r="R23" s="27">
         <v>310</v>
       </c>
     </row>
@@ -3766,7 +3823,7 @@
       <c r="N28" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O28" s="23" t="s">
+      <c r="O28" s="24" t="s">
         <v>70</v>
       </c>
       <c r="P28" s="13" t="s">
@@ -3828,14 +3885,16 @@
       <c r="P30" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Q30" s="29">
-        <v>44559</v>
-      </c>
-      <c r="R30" s="30"/>
+      <c r="Q30" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="R30" s="31">
+        <v>300</v>
+      </c>
     </row>
     <row r="31" ht="40" customHeight="1" spans="1:18">
       <c r="A31" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
@@ -3854,75 +3913,149 @@
       <c r="N31" s="19"/>
       <c r="O31" s="19"/>
       <c r="P31" s="13"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="33"/>
     </row>
     <row r="32" ht="40" customHeight="1" spans="1:18">
       <c r="A32" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="19"/>
+      <c r="C32" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="D32" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="19"/>
+      <c r="E32" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="F32" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="19"/>
+      <c r="G32" s="12" t="s">
+        <v>79</v>
+      </c>
       <c r="H32" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I32" s="19"/>
+      <c r="I32" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="J32" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K32" s="19"/>
+      <c r="K32" s="12" t="s">
+        <v>81</v>
+      </c>
       <c r="L32" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M32" s="19"/>
+      <c r="M32" s="12" t="s">
+        <v>82</v>
+      </c>
       <c r="N32" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O32" s="19"/>
+      <c r="O32" s="12" t="s">
+        <v>82</v>
+      </c>
       <c r="P32" s="13"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="34">
+        <v>775.88</v>
+      </c>
     </row>
     <row r="33" ht="40" customHeight="1" spans="1:18">
-      <c r="A33" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="18"/>
+      <c r="A33" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="21"/>
       <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
+      <c r="D33" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
+      <c r="F33" s="13"/>
       <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
+      <c r="H33" s="13"/>
       <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
+      <c r="J33" s="13"/>
       <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
+      <c r="L33" s="13"/>
       <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
+      <c r="N33" s="13"/>
       <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="34">
-        <f>SUM(R4:R32)</f>
-        <v>8212.49</v>
-      </c>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="33"/>
     </row>
-    <row r="34" customHeight="1" spans="18:18">
-      <c r="R34" s="35"/>
+    <row r="34" ht="40" customHeight="1" spans="1:18">
+      <c r="A34" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="19"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="19"/>
+      <c r="L34" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M34" s="19"/>
+      <c r="N34" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O34" s="19"/>
+      <c r="P34" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="33"/>
     </row>
-    <row r="37" customHeight="1" spans="18:18">
-      <c r="R37" s="35"/>
+    <row r="35" ht="40" customHeight="1" spans="1:18">
+      <c r="A35" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="36">
+        <f>SUM(R4:R34)</f>
+        <v>9288.37</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="18:18">
+      <c r="R36" s="37"/>
+    </row>
+    <row r="39" customHeight="1" spans="18:18">
+      <c r="R39" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/fileHLC/可转债记录excel.xlsx
+++ b/fileHLC/可转债记录excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="87">
   <si>
     <t>可转债</t>
   </si>
@@ -763,6 +763,10 @@
   <si>
     <t>贵燃转债
 2021/12/29</t>
+  </si>
+  <si>
+    <t>2022/1/20
+180</t>
   </si>
   <si>
     <t>兴业转债
@@ -811,8 +815,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -860,6 +864,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -874,44 +907,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -925,11 +929,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -945,14 +949,6 @@
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -974,12 +970,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
@@ -996,7 +993,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1005,6 +1002,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1061,7 +1065,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,103 +1227,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1181,67 +1239,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1438,6 +1442,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1449,21 +1462,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1492,20 +1490,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1527,6 +1522,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1540,148 +1544,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1786,10 +1790,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2973,11 +2977,11 @@
   <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="H26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R35" sqref="R35"/>
+      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7142857142857" defaultRowHeight="13.9" customHeight="1"/>
@@ -3909,68 +3913,72 @@
       <c r="L31" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M31" s="19"/>
+      <c r="M31" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="N31" s="19"/>
       <c r="O31" s="19"/>
       <c r="P31" s="13"/>
       <c r="Q31" s="32"/>
-      <c r="R31" s="33"/>
+      <c r="R31" s="33">
+        <v>180</v>
+      </c>
     </row>
     <row r="32" ht="40" customHeight="1" spans="1:18">
       <c r="A32" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J32" s="13" t="s">
         <v>13</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L32" s="13" t="s">
         <v>13</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N32" s="13" t="s">
         <v>13</v>
       </c>
       <c r="O32" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P32" s="13"/>
       <c r="Q32" s="32"/>
-      <c r="R32" s="34">
+      <c r="R32" s="33">
         <v>775.88</v>
       </c>
     </row>
     <row r="33" ht="40" customHeight="1" spans="1:18">
       <c r="A33" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="19"/>
@@ -3990,11 +3998,11 @@
       <c r="O33" s="19"/>
       <c r="P33" s="13"/>
       <c r="Q33" s="32"/>
-      <c r="R33" s="33"/>
+      <c r="R33" s="34"/>
     </row>
     <row r="34" ht="40" customHeight="1" spans="1:18">
       <c r="A34" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>13</v>
@@ -4024,11 +4032,11 @@
         <v>13</v>
       </c>
       <c r="Q34" s="32"/>
-      <c r="R34" s="33"/>
+      <c r="R34" s="34"/>
     </row>
     <row r="35" ht="40" customHeight="1" spans="1:18">
       <c r="A35" s="22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
@@ -4048,7 +4056,7 @@
       <c r="Q35" s="35"/>
       <c r="R35" s="36">
         <f>SUM(R4:R34)</f>
-        <v>9288.37</v>
+        <v>9468.37</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="18:18">

--- a/fileHLC/可转债记录excel.xlsx
+++ b/fileHLC/可转债记录excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="88">
   <si>
     <t>可转债</t>
   </si>
@@ -799,6 +799,10 @@
   <si>
     <t>台21转债
 2021/12/31</t>
+  </si>
+  <si>
+    <t>2022/1/24
+308</t>
   </si>
   <si>
     <t>隆22转债
@@ -815,8 +819,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -864,14 +868,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -886,6 +891,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -893,7 +905,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -915,7 +927,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -923,15 +935,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -949,6 +953,14 @@
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -976,9 +988,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -987,13 +998,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1065,7 +1069,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,13 +1087,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,7 +1099,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,7 +1117,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,7 +1135,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,7 +1165,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,25 +1195,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1179,19 +1207,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1203,37 +1219,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1246,6 +1232,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1442,15 +1446,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1462,6 +1457,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1522,15 +1535,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1544,46 +1548,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1595,97 +1599,97 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2981,7 +2985,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
+      <selection pane="bottomRight" activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7142857142857" defaultRowHeight="13.9" customHeight="1"/>
@@ -3985,7 +3989,9 @@
       <c r="D33" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="19"/>
+      <c r="E33" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="F33" s="13"/>
       <c r="G33" s="19"/>
       <c r="H33" s="13"/>
@@ -3998,11 +4004,13 @@
       <c r="O33" s="19"/>
       <c r="P33" s="13"/>
       <c r="Q33" s="32"/>
-      <c r="R33" s="34"/>
+      <c r="R33" s="33">
+        <v>308</v>
+      </c>
     </row>
     <row r="34" ht="40" customHeight="1" spans="1:18">
       <c r="A34" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>13</v>
@@ -4036,7 +4044,7 @@
     </row>
     <row r="35" ht="40" customHeight="1" spans="1:18">
       <c r="A35" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
@@ -4056,7 +4064,7 @@
       <c r="Q35" s="35"/>
       <c r="R35" s="36">
         <f>SUM(R4:R34)</f>
-        <v>9468.37</v>
+        <v>9776.37</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="18:18">

--- a/fileHLC/可转债记录excel.xlsx
+++ b/fileHLC/可转债记录excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="89">
   <si>
     <t>可转债</t>
   </si>
@@ -807,6 +807,10 @@
   <si>
     <t>隆22转债
 2021/1/7</t>
+  </si>
+  <si>
+    <t>天奈转债
+2022/2/7</t>
   </si>
   <si>
     <t>总合</t>
@@ -817,10 +821,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -874,9 +878,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -890,59 +921,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -953,6 +934,14 @@
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -980,9 +969,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1006,13 +1017,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1069,13 +1073,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,37 +1139,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,13 +1157,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1153,55 +1193,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1219,37 +1229,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1447,6 +1451,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1473,30 +1492,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1514,6 +1509,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1548,152 +1552,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1795,6 +1799,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2978,14 +2985,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R39"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R33" sqref="R33"/>
+      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7142857142857" defaultRowHeight="13.9" customHeight="1"/>
@@ -4043,35 +4050,59 @@
       <c r="R34" s="34"/>
     </row>
     <row r="35" ht="40" customHeight="1" spans="1:18">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="18"/>
+      <c r="B35" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
+      <c r="D35" s="13"/>
       <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="F35" s="13"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
+      <c r="H35" s="13"/>
       <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
+      <c r="J35" s="13"/>
       <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
+      <c r="L35" s="13"/>
       <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
+      <c r="N35" s="13"/>
       <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="36">
+      <c r="P35" s="13"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="35"/>
+    </row>
+    <row r="36" ht="40" customHeight="1" spans="1:18">
+      <c r="A36" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="37">
         <f>SUM(R4:R34)</f>
         <v>9776.37</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="18:18">
-      <c r="R36" s="37"/>
+    <row r="37" customHeight="1" spans="18:18">
+      <c r="R37" s="38"/>
     </row>
-    <row r="39" customHeight="1" spans="18:18">
-      <c r="R39" s="37"/>
+    <row r="40" customHeight="1" spans="18:18">
+      <c r="R40" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/fileHLC/可转债记录excel.xlsx
+++ b/fileHLC/可转债记录excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>可转债</t>
   </si>
@@ -807,6 +807,18 @@
   <si>
     <t>隆22转债
 2021/1/7</t>
+  </si>
+  <si>
+    <t>2022/2/17
+262</t>
+  </si>
+  <si>
+    <t>2022/2/17
+260</t>
+  </si>
+  <si>
+    <t>2022/2/17
+261</t>
   </si>
   <si>
     <t>天奈转债
@@ -821,10 +833,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -874,14 +886,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -895,7 +900,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -929,19 +934,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -969,23 +981,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1000,7 +998,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1017,6 +1015,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1073,13 +1085,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,25 +1133,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,13 +1163,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,61 +1229,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1211,49 +1241,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1451,21 +1463,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1485,6 +1482,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1552,152 +1564,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1799,9 +1811,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2988,11 +2997,11 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomRight" activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7142857142857" defaultRowHeight="13.9" customHeight="1"/>
@@ -4026,7 +4035,9 @@
       <c r="D34" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="19"/>
+      <c r="E34" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="F34" s="13"/>
       <c r="G34" s="19"/>
       <c r="H34" s="13"/>
@@ -4038,20 +4049,26 @@
       <c r="L34" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M34" s="19"/>
+      <c r="M34" s="12" t="s">
+        <v>88</v>
+      </c>
       <c r="N34" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O34" s="19"/>
+      <c r="O34" s="12" t="s">
+        <v>89</v>
+      </c>
       <c r="P34" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Q34" s="32"/>
+      <c r="Q34" s="12" t="s">
+        <v>88</v>
+      </c>
       <c r="R34" s="34"/>
     </row>
     <row r="35" ht="40" customHeight="1" spans="1:18">
       <c r="A35" s="10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>13</v>
@@ -4071,11 +4088,11 @@
       <c r="O35" s="19"/>
       <c r="P35" s="13"/>
       <c r="Q35" s="32"/>
-      <c r="R35" s="35"/>
+      <c r="R35" s="34"/>
     </row>
     <row r="36" ht="40" customHeight="1" spans="1:18">
       <c r="A36" s="22" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B36" s="18"/>
       <c r="C36" s="19"/>
@@ -4092,17 +4109,17 @@
       <c r="N36" s="19"/>
       <c r="O36" s="19"/>
       <c r="P36" s="19"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="37">
-        <f>SUM(R4:R34)</f>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="36">
+        <f>SUM(R4:R35)</f>
         <v>9776.37</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="18:18">
-      <c r="R37" s="38"/>
+      <c r="R37" s="37"/>
     </row>
     <row r="40" customHeight="1" spans="18:18">
-      <c r="R40" s="38"/>
+      <c r="R40" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/fileHLC/可转债记录excel.xlsx
+++ b/fileHLC/可转债记录excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="106">
   <si>
     <t>可转债</t>
   </si>
@@ -809,10 +809,18 @@
 2021/1/7</t>
   </si>
   <si>
+    <t>2022/2/23
+266</t>
+  </si>
+  <si>
     <t>2022/2/17
 262</t>
   </si>
   <si>
+    <t>2022/2/23
+269</t>
+  </si>
+  <si>
     <t>2022/2/17
 260</t>
   </si>
@@ -823,6 +831,53 @@
   <si>
     <t>天奈转债
 2022/2/7</t>
+  </si>
+  <si>
+    <t>2022/3/11
+274</t>
+  </si>
+  <si>
+    <t>华友转债
+2022/2/27</t>
+  </si>
+  <si>
+    <t>2022/3/29
+200</t>
+  </si>
+  <si>
+    <t>通22转债
+2022/2/27</t>
+  </si>
+  <si>
+    <t>2022/3/21
+330</t>
+  </si>
+  <si>
+    <t>绿动转债
+2022/2/28</t>
+  </si>
+  <si>
+    <t>2022/3/30
+110</t>
+  </si>
+  <si>
+    <t>2022/3/30
+112</t>
+  </si>
+  <si>
+    <t>中银转债
+2022/3/28</t>
+  </si>
+  <si>
+    <t>风语转债
+2022/3/29</t>
+  </si>
+  <si>
+    <t>艾迪转债
+2022/4/19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>总合</t>
@@ -884,13 +939,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -899,99 +947,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1012,9 +967,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1027,8 +1065,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1091,13 +1146,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,19 +1170,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,25 +1194,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1169,55 +1212,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1235,7 +1236,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1247,7 +1254,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1259,13 +1320,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1462,69 +1517,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1549,6 +1541,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1559,157 +1566,205 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1776,6 +1831,9 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1817,6 +1875,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2994,14 +3055,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O34" sqref="O34"/>
+      <selection pane="bottomRight" activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7142857142857" defaultRowHeight="13.9" customHeight="1"/>
@@ -3030,8 +3091,8 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
       <c r="R1" s="3"/>
     </row>
     <row r="2" ht="17" customHeight="1" spans="1:18">
@@ -3067,7 +3128,7 @@
       <c r="P2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="25"/>
+      <c r="Q2" s="26"/>
       <c r="R2" s="5" t="s">
         <v>9</v>
       </c>
@@ -3122,7 +3183,7 @@
       <c r="Q3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="26"/>
+      <c r="R3" s="27"/>
     </row>
     <row r="4" ht="40" customHeight="1" spans="1:18">
       <c r="A4" s="10" t="s">
@@ -3148,7 +3209,7 @@
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
-      <c r="R4" s="27">
+      <c r="R4" s="28">
         <v>-26.9</v>
       </c>
     </row>
@@ -3176,7 +3237,7 @@
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
-      <c r="R5" s="28">
+      <c r="R5" s="29">
         <v>82</v>
       </c>
     </row>
@@ -3208,7 +3269,7 @@
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
-      <c r="R6" s="27">
+      <c r="R6" s="28">
         <v>-147.85</v>
       </c>
     </row>
@@ -3236,7 +3297,7 @@
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
-      <c r="R7" s="27">
+      <c r="R7" s="28">
         <v>-51</v>
       </c>
     </row>
@@ -3264,7 +3325,7 @@
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
-      <c r="R8" s="27">
+      <c r="R8" s="28">
         <v>20</v>
       </c>
     </row>
@@ -3292,7 +3353,7 @@
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
-      <c r="R9" s="27">
+      <c r="R9" s="28">
         <v>104</v>
       </c>
     </row>
@@ -3320,7 +3381,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
-      <c r="R10" s="27">
+      <c r="R10" s="28">
         <v>660</v>
       </c>
     </row>
@@ -3348,7 +3409,7 @@
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
-      <c r="R11" s="29">
+      <c r="R11" s="30">
         <v>63</v>
       </c>
     </row>
@@ -3380,7 +3441,7 @@
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
-      <c r="R12" s="27">
+      <c r="R12" s="28">
         <v>821.58</v>
       </c>
     </row>
@@ -3412,7 +3473,7 @@
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
-      <c r="R13" s="27">
+      <c r="R13" s="28">
         <v>262</v>
       </c>
     </row>
@@ -3444,7 +3505,7 @@
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
-      <c r="R14" s="27">
+      <c r="R14" s="28">
         <v>999.9</v>
       </c>
     </row>
@@ -3472,7 +3533,7 @@
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
-      <c r="R15" s="27">
+      <c r="R15" s="28">
         <v>130</v>
       </c>
     </row>
@@ -3500,7 +3561,7 @@
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
-      <c r="R16" s="27">
+      <c r="R16" s="28">
         <v>300</v>
       </c>
     </row>
@@ -3536,7 +3597,7 @@
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
-      <c r="R17" s="27">
+      <c r="R17" s="28">
         <v>570</v>
       </c>
     </row>
@@ -3564,7 +3625,7 @@
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
-      <c r="R18" s="27">
+      <c r="R18" s="28">
         <v>151</v>
       </c>
     </row>
@@ -3596,7 +3657,7 @@
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
-      <c r="R19" s="27">
+      <c r="R19" s="28">
         <v>680</v>
       </c>
     </row>
@@ -3624,7 +3685,7 @@
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
-      <c r="R20" s="27">
+      <c r="R20" s="28">
         <v>320</v>
       </c>
     </row>
@@ -3676,7 +3737,7 @@
       </c>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
-      <c r="R22" s="27">
+      <c r="R22" s="28">
         <v>300</v>
       </c>
     </row>
@@ -3704,7 +3765,7 @@
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
-      <c r="R23" s="27">
+      <c r="R23" s="28">
         <v>310</v>
       </c>
     </row>
@@ -3847,7 +3908,7 @@
       <c r="N28" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O28" s="24" t="s">
+      <c r="O28" s="25" t="s">
         <v>70</v>
       </c>
       <c r="P28" s="13" t="s">
@@ -3909,10 +3970,10 @@
       <c r="P30" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Q30" s="30" t="s">
+      <c r="Q30" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="R30" s="31">
+      <c r="R30" s="32">
         <v>300</v>
       </c>
     </row>
@@ -3939,8 +4000,8 @@
       <c r="N31" s="19"/>
       <c r="O31" s="19"/>
       <c r="P31" s="13"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="33">
+      <c r="Q31" s="33"/>
+      <c r="R31" s="34">
         <v>180</v>
       </c>
     </row>
@@ -3991,8 +4052,8 @@
         <v>83</v>
       </c>
       <c r="P32" s="13"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="33">
+      <c r="Q32" s="33"/>
+      <c r="R32" s="34">
         <v>775.88</v>
       </c>
     </row>
@@ -4019,8 +4080,8 @@
       <c r="N33" s="13"/>
       <c r="O33" s="19"/>
       <c r="P33" s="13"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="33">
+      <c r="Q33" s="33"/>
+      <c r="R33" s="34">
         <v>308</v>
       </c>
     </row>
@@ -4031,12 +4092,14 @@
       <c r="B34" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="19"/>
+      <c r="C34" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="D34" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="19"/>
@@ -4045,35 +4108,41 @@
       <c r="J34" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K34" s="19"/>
+      <c r="K34" s="12" t="s">
+        <v>89</v>
+      </c>
       <c r="L34" s="13" t="s">
         <v>13</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N34" s="13" t="s">
         <v>13</v>
       </c>
       <c r="O34" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P34" s="13" t="s">
         <v>13</v>
       </c>
       <c r="Q34" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="R34" s="34"/>
+        <v>90</v>
+      </c>
+      <c r="R34" s="34">
+        <v>1578</v>
+      </c>
     </row>
     <row r="35" ht="40" customHeight="1" spans="1:18">
       <c r="A35" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="19"/>
+      <c r="C35" s="12" t="s">
+        <v>93</v>
+      </c>
       <c r="D35" s="13"/>
       <c r="E35" s="19"/>
       <c r="F35" s="13"/>
@@ -4087,39 +4156,207 @@
       <c r="N35" s="13"/>
       <c r="O35" s="19"/>
       <c r="P35" s="13"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="34"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="34">
+        <v>274</v>
+      </c>
     </row>
     <row r="36" ht="40" customHeight="1" spans="1:18">
-      <c r="A36" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B36" s="18"/>
+      <c r="A36" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="21"/>
       <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
+      <c r="D36" s="13"/>
       <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="F36" s="13"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
+      <c r="H36" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J36" s="13"/>
       <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
+      <c r="L36" s="13"/>
       <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
+      <c r="N36" s="13"/>
       <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="36">
-        <f>SUM(R4:R35)</f>
-        <v>9776.37</v>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="34">
+        <v>200</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="18:18">
-      <c r="R37" s="37"/>
+    <row r="37" ht="40" customHeight="1" spans="1:18">
+      <c r="A37" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="34">
+        <v>330</v>
+      </c>
     </row>
-    <row r="40" customHeight="1" spans="18:18">
-      <c r="R40" s="37"/>
+    <row r="38" ht="40" customHeight="1" spans="1:18">
+      <c r="A38" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="21"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J38" s="13"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="N38" s="13"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="34">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" ht="40" customHeight="1" spans="1:18">
+      <c r="A39" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="21"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="19"/>
+      <c r="F39" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="19"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" s="19"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O39" s="19"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="35"/>
+    </row>
+    <row r="40" ht="40" customHeight="1" spans="1:18">
+      <c r="A40" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="21"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" s="19"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="35"/>
+    </row>
+    <row r="41" ht="40" customHeight="1" spans="1:18">
+      <c r="A41" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="37"/>
+    </row>
+    <row r="42" ht="40" customHeight="1" spans="1:18">
+      <c r="A42" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="38">
+        <f>SUM(R4:R40)</f>
+        <v>12380.37</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="18:18">
+      <c r="R43" s="39"/>
+    </row>
+    <row r="46" customHeight="1" spans="18:18">
+      <c r="R46" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/fileHLC/可转债记录excel.xlsx
+++ b/fileHLC/可转债记录excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - 可转债" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="111">
   <si>
     <t>可转债</t>
   </si>
@@ -528,6 +528,10 @@
     </r>
   </si>
   <si>
+    <t>2022/5/13
+510</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -869,15 +873,32 @@
 2022/3/28</t>
   </si>
   <si>
+    <t>2022/5/26
+123</t>
+  </si>
+  <si>
+    <t>2022/5/26
+124</t>
+  </si>
+  <si>
     <t>风语转债
 2022/3/29</t>
   </si>
   <si>
+    <t>2022/5/12
+193</t>
+  </si>
+  <si>
     <t>艾迪转债
 2022/4/19</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>2022/5/12
+153</t>
+  </si>
+  <si>
+    <t>中环转2
+2022/5/10</t>
   </si>
   <si>
     <t>总合</t>
@@ -888,16 +909,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -932,6 +959,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="微软雅黑"/>
@@ -939,127 +973,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1081,9 +995,129 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1140,7 +1174,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1152,19 +1300,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1176,79 +1342,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1260,72 +1354,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1334,11 +1368,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1349,9 +1389,7 @@
       <right style="thin">
         <color indexed="10"/>
       </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="13"/>
       </bottom>
@@ -1502,17 +1540,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1520,23 +1552,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1558,20 +1575,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1591,15 +1597,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1614,153 +1611,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1774,19 +1797,19 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1795,7 +1818,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1813,7 +1836,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1834,15 +1857,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1852,15 +1878,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1870,19 +1893,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3055,14 +3078,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N41" sqref="N41"/>
+      <selection pane="bottomRight" activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7142857142857" defaultRowHeight="13.9" customHeight="1"/>
@@ -3070,7 +3093,8 @@
     <col min="1" max="1" width="15.7142857142857" style="1" customWidth="1"/>
     <col min="2" max="8" width="16.352380952381" style="1" customWidth="1"/>
     <col min="9" max="17" width="16.1714285714286" style="1" customWidth="1"/>
-    <col min="18" max="256" width="16.352380952381" style="1" customWidth="1"/>
+    <col min="18" max="243" width="16.352380952381" style="1" customWidth="1"/>
+    <col min="244" max="244" width="16.352380952381"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1" spans="1:18">
@@ -3128,7 +3152,7 @@
       <c r="P2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="26"/>
+      <c r="Q2" s="27"/>
       <c r="R2" s="5" t="s">
         <v>9</v>
       </c>
@@ -3183,7 +3207,7 @@
       <c r="Q3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="27"/>
+      <c r="R3" s="28"/>
     </row>
     <row r="4" ht="40" customHeight="1" spans="1:18">
       <c r="A4" s="10" t="s">
@@ -3209,7 +3233,7 @@
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
-      <c r="R4" s="28">
+      <c r="R4" s="29">
         <v>-26.9</v>
       </c>
     </row>
@@ -3237,7 +3261,7 @@
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
-      <c r="R5" s="29">
+      <c r="R5" s="30">
         <v>82</v>
       </c>
     </row>
@@ -3269,7 +3293,7 @@
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
-      <c r="R6" s="28">
+      <c r="R6" s="29">
         <v>-147.85</v>
       </c>
     </row>
@@ -3297,7 +3321,7 @@
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
-      <c r="R7" s="28">
+      <c r="R7" s="29">
         <v>-51</v>
       </c>
     </row>
@@ -3325,7 +3349,7 @@
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
-      <c r="R8" s="28">
+      <c r="R8" s="29">
         <v>20</v>
       </c>
     </row>
@@ -3353,7 +3377,7 @@
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
-      <c r="R9" s="28">
+      <c r="R9" s="29">
         <v>104</v>
       </c>
     </row>
@@ -3381,7 +3405,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
-      <c r="R10" s="28">
+      <c r="R10" s="29">
         <v>660</v>
       </c>
     </row>
@@ -3409,7 +3433,7 @@
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
-      <c r="R11" s="30">
+      <c r="R11" s="31">
         <v>63</v>
       </c>
     </row>
@@ -3441,7 +3465,7 @@
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
-      <c r="R12" s="28">
+      <c r="R12" s="29">
         <v>821.58</v>
       </c>
     </row>
@@ -3473,7 +3497,7 @@
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
-      <c r="R13" s="28">
+      <c r="R13" s="29">
         <v>262</v>
       </c>
     </row>
@@ -3505,7 +3529,7 @@
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
-      <c r="R14" s="28">
+      <c r="R14" s="29">
         <v>999.9</v>
       </c>
     </row>
@@ -3533,7 +3557,7 @@
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
-      <c r="R15" s="28">
+      <c r="R15" s="29">
         <v>130</v>
       </c>
     </row>
@@ -3561,7 +3585,7 @@
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
-      <c r="R16" s="28">
+      <c r="R16" s="29">
         <v>300</v>
       </c>
     </row>
@@ -3597,7 +3621,7 @@
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
-      <c r="R17" s="28">
+      <c r="R17" s="29">
         <v>570</v>
       </c>
     </row>
@@ -3625,7 +3649,7 @@
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
-      <c r="R18" s="28">
+      <c r="R18" s="29">
         <v>151</v>
       </c>
     </row>
@@ -3657,7 +3681,7 @@
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
-      <c r="R19" s="28">
+      <c r="R19" s="29">
         <v>680</v>
       </c>
     </row>
@@ -3685,7 +3709,7 @@
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
-      <c r="R20" s="28">
+      <c r="R20" s="29">
         <v>320</v>
       </c>
     </row>
@@ -3698,7 +3722,9 @@
       <c r="D21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="19"/>
+      <c r="E21" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
@@ -3711,11 +3737,13 @@
       <c r="O21" s="19"/>
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
+      <c r="R21" s="12">
+        <v>510</v>
+      </c>
     </row>
     <row r="22" ht="40" customHeight="1" spans="1:18">
       <c r="A22" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
@@ -3733,17 +3761,17 @@
         <v>13</v>
       </c>
       <c r="O22" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
-      <c r="R22" s="28">
+      <c r="R22" s="29">
         <v>300</v>
       </c>
     </row>
     <row r="23" ht="40" customHeight="1" spans="1:18">
       <c r="A23" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
@@ -3755,7 +3783,7 @@
         <v>13</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
@@ -3765,13 +3793,13 @@
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
-      <c r="R23" s="28">
+      <c r="R23" s="29">
         <v>310</v>
       </c>
     </row>
     <row r="24" ht="40" customHeight="1" spans="1:18">
       <c r="A24" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
@@ -3783,7 +3811,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
@@ -3799,7 +3827,7 @@
     </row>
     <row r="25" ht="40" customHeight="1" spans="1:18">
       <c r="A25" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
@@ -3815,13 +3843,13 @@
         <v>13</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N25" s="13" t="s">
         <v>13</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
@@ -3831,7 +3859,7 @@
     </row>
     <row r="26" ht="40" customHeight="1" spans="1:18">
       <c r="A26" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="19"/>
@@ -3839,7 +3867,7 @@
         <v>13</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
@@ -3853,7 +3881,7 @@
         <v>13</v>
       </c>
       <c r="O26" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
@@ -3863,7 +3891,7 @@
     </row>
     <row r="27" ht="40" customHeight="1" spans="1:18">
       <c r="A27" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="19"/>
@@ -3879,7 +3907,7 @@
         <v>13</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N27" s="19"/>
       <c r="O27" s="19"/>
@@ -3891,7 +3919,7 @@
     </row>
     <row r="28" ht="40" customHeight="1" spans="1:18">
       <c r="A28" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
@@ -3909,13 +3937,13 @@
         <v>13</v>
       </c>
       <c r="O28" s="25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P28" s="13" t="s">
         <v>13</v>
       </c>
       <c r="Q28" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R28" s="12">
         <v>746</v>
@@ -3923,7 +3951,7 @@
     </row>
     <row r="29" ht="40" customHeight="1" spans="1:18">
       <c r="A29" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
@@ -3931,7 +3959,7 @@
         <v>13</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
@@ -3951,7 +3979,7 @@
     </row>
     <row r="30" ht="40" customHeight="1" spans="1:18">
       <c r="A30" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="19"/>
@@ -3970,8 +3998,8 @@
       <c r="P30" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Q30" s="31" t="s">
-        <v>74</v>
+      <c r="Q30" s="26" t="s">
+        <v>75</v>
       </c>
       <c r="R30" s="32">
         <v>300</v>
@@ -3979,7 +4007,7 @@
     </row>
     <row r="31" ht="40" customHeight="1" spans="1:18">
       <c r="A31" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
@@ -3995,7 +4023,7 @@
         <v>13</v>
       </c>
       <c r="M31" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N31" s="19"/>
       <c r="O31" s="19"/>
@@ -4007,49 +4035,49 @@
     </row>
     <row r="32" ht="40" customHeight="1" spans="1:18">
       <c r="A32" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J32" s="13" t="s">
         <v>13</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L32" s="13" t="s">
         <v>13</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N32" s="13" t="s">
         <v>13</v>
       </c>
       <c r="O32" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P32" s="13"/>
       <c r="Q32" s="33"/>
@@ -4059,7 +4087,7 @@
     </row>
     <row r="33" ht="40" customHeight="1" spans="1:18">
       <c r="A33" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="19"/>
@@ -4067,7 +4095,7 @@
         <v>13</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="19"/>
@@ -4087,19 +4115,19 @@
     </row>
     <row r="34" ht="40" customHeight="1" spans="1:18">
       <c r="A34" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="19"/>
@@ -4109,25 +4137,25 @@
         <v>13</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L34" s="13" t="s">
         <v>13</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N34" s="13" t="s">
         <v>13</v>
       </c>
       <c r="O34" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="P34" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q34" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="P34" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q34" s="12" t="s">
-        <v>90</v>
       </c>
       <c r="R34" s="34">
         <v>1578</v>
@@ -4135,13 +4163,13 @@
     </row>
     <row r="35" ht="40" customHeight="1" spans="1:18">
       <c r="A35" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="19"/>
@@ -4163,7 +4191,7 @@
     </row>
     <row r="36" ht="40" customHeight="1" spans="1:18">
       <c r="A36" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B36" s="21"/>
       <c r="C36" s="19"/>
@@ -4175,7 +4203,7 @@
         <v>13</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J36" s="13"/>
       <c r="K36" s="19"/>
@@ -4191,13 +4219,13 @@
     </row>
     <row r="37" ht="40" customHeight="1" spans="1:18">
       <c r="A37" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="19"/>
@@ -4219,7 +4247,7 @@
     </row>
     <row r="38" ht="40" customHeight="1" spans="1:18">
       <c r="A38" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B38" s="21"/>
       <c r="C38" s="19"/>
@@ -4231,7 +4259,7 @@
         <v>13</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J38" s="13"/>
       <c r="K38" s="19"/>
@@ -4239,7 +4267,7 @@
         <v>13</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N38" s="13"/>
       <c r="O38" s="19"/>
@@ -4251,37 +4279,47 @@
     </row>
     <row r="39" ht="40" customHeight="1" spans="1:18">
       <c r="A39" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B39" s="21"/>
       <c r="C39" s="19"/>
       <c r="D39" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="19"/>
+      <c r="E39" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="F39" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="19"/>
+      <c r="G39" s="12" t="s">
+        <v>104</v>
+      </c>
       <c r="H39" s="13"/>
       <c r="I39" s="19"/>
       <c r="J39" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K39" s="19"/>
+      <c r="K39" s="12" t="s">
+        <v>104</v>
+      </c>
       <c r="L39" s="13"/>
       <c r="M39" s="19"/>
       <c r="N39" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O39" s="19"/>
+      <c r="O39" s="12" t="s">
+        <v>104</v>
+      </c>
       <c r="P39" s="13"/>
       <c r="Q39" s="33"/>
-      <c r="R39" s="35"/>
+      <c r="R39" s="34">
+        <v>495</v>
+      </c>
     </row>
     <row r="40" ht="40" customHeight="1" spans="1:18">
       <c r="A40" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B40" s="21"/>
       <c r="C40" s="19"/>
@@ -4294,18 +4332,22 @@
       <c r="J40" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K40" s="19"/>
+      <c r="K40" s="26" t="s">
+        <v>106</v>
+      </c>
       <c r="L40" s="13"/>
       <c r="M40" s="19"/>
       <c r="N40" s="13"/>
       <c r="O40" s="19"/>
       <c r="P40" s="13"/>
       <c r="Q40" s="33"/>
-      <c r="R40" s="35"/>
+      <c r="R40" s="34">
+        <v>193</v>
+      </c>
     </row>
     <row r="41" ht="40" customHeight="1" spans="1:18">
       <c r="A41" s="10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B41" s="22"/>
       <c r="C41" s="19"/>
@@ -4320,18 +4362,22 @@
       <c r="L41" s="19"/>
       <c r="M41" s="19"/>
       <c r="N41" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="O41" s="19"/>
+        <v>13</v>
+      </c>
+      <c r="O41" s="12" t="s">
+        <v>108</v>
+      </c>
       <c r="P41" s="19"/>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="37"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="36">
+        <v>153</v>
+      </c>
     </row>
     <row r="42" ht="40" customHeight="1" spans="1:18">
-      <c r="A42" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="B42" s="18"/>
+      <c r="A42" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="22"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
@@ -4345,18 +4391,42 @@
       <c r="M42" s="19"/>
       <c r="N42" s="19"/>
       <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="36"/>
-      <c r="R42" s="38">
-        <f>SUM(R4:R40)</f>
-        <v>12380.37</v>
-      </c>
+      <c r="P42" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="37"/>
     </row>
-    <row r="43" customHeight="1" spans="18:18">
-      <c r="R43" s="39"/>
+    <row r="43" ht="40" customHeight="1" spans="1:18">
+      <c r="A43" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="38">
+        <f>SUM(R4:R42)</f>
+        <v>13731.37</v>
+      </c>
     </row>
-    <row r="46" customHeight="1" spans="18:18">
-      <c r="R46" s="39"/>
+    <row r="44" customHeight="1" spans="18:18">
+      <c r="R44" s="39"/>
+    </row>
+    <row r="47" customHeight="1" spans="18:18">
+      <c r="R47" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/fileHLC/可转债记录excel.xlsx
+++ b/fileHLC/可转债记录excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - 可转债" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="121">
   <si>
     <t>可转债</t>
   </si>
@@ -899,6 +899,46 @@
   <si>
     <t>中环转2
 2022/5/10</t>
+  </si>
+  <si>
+    <t>2022/5/27
+163</t>
+  </si>
+  <si>
+    <t>中辰转债
+2022/6/02</t>
+  </si>
+  <si>
+    <t>2022/6/24
+315</t>
+  </si>
+  <si>
+    <t>上能转债
+2022/6/17</t>
+  </si>
+  <si>
+    <t>2022/7/12
+1061</t>
+  </si>
+  <si>
+    <t>道通转债
+2022/7/12</t>
+  </si>
+  <si>
+    <t>2022/8/1
+412</t>
+  </si>
+  <si>
+    <t>2022/7/29
+380</t>
+  </si>
+  <si>
+    <t>拓普转债
+2022/7/18</t>
+  </si>
+  <si>
+    <t>2022/8/15
+500</t>
   </si>
   <si>
     <t>总合</t>
@@ -910,8 +950,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
@@ -953,17 +993,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -975,12 +1015,87 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -995,45 +1110,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1048,68 +1143,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -1118,6 +1151,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1174,7 +1214,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,169 +1388,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1540,24 +1580,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1573,15 +1595,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1593,6 +1606,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1629,6 +1660,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1642,152 +1682,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1878,9 +1918,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1896,10 +1933,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3078,14 +3115,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="D40" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q42" sqref="Q42"/>
+      <selection pane="bottomRight" activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7142857142857" defaultRowHeight="13.9" customHeight="1"/>
@@ -3261,7 +3298,7 @@
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
-      <c r="R5" s="30">
+      <c r="R5" s="29">
         <v>82</v>
       </c>
     </row>
@@ -3433,7 +3470,7 @@
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
-      <c r="R11" s="31">
+      <c r="R11" s="30">
         <v>63</v>
       </c>
     </row>
@@ -4001,7 +4038,7 @@
       <c r="Q30" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="R30" s="32">
+      <c r="R30" s="31">
         <v>300</v>
       </c>
     </row>
@@ -4028,8 +4065,8 @@
       <c r="N31" s="19"/>
       <c r="O31" s="19"/>
       <c r="P31" s="13"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="34">
+      <c r="Q31" s="32"/>
+      <c r="R31" s="33">
         <v>180</v>
       </c>
     </row>
@@ -4080,8 +4117,8 @@
         <v>84</v>
       </c>
       <c r="P32" s="13"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="34">
+      <c r="Q32" s="32"/>
+      <c r="R32" s="33">
         <v>775.88</v>
       </c>
     </row>
@@ -4108,8 +4145,8 @@
       <c r="N33" s="13"/>
       <c r="O33" s="19"/>
       <c r="P33" s="13"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="34">
+      <c r="Q33" s="32"/>
+      <c r="R33" s="33">
         <v>308</v>
       </c>
     </row>
@@ -4157,7 +4194,7 @@
       <c r="Q34" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="R34" s="34">
+      <c r="R34" s="33">
         <v>1578</v>
       </c>
     </row>
@@ -4184,8 +4221,8 @@
       <c r="N35" s="13"/>
       <c r="O35" s="19"/>
       <c r="P35" s="13"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="34">
+      <c r="Q35" s="32"/>
+      <c r="R35" s="33">
         <v>274</v>
       </c>
     </row>
@@ -4212,8 +4249,8 @@
       <c r="N36" s="13"/>
       <c r="O36" s="19"/>
       <c r="P36" s="13"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="34">
+      <c r="Q36" s="32"/>
+      <c r="R36" s="33">
         <v>200</v>
       </c>
     </row>
@@ -4240,8 +4277,8 @@
       <c r="N37" s="13"/>
       <c r="O37" s="19"/>
       <c r="P37" s="13"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="34">
+      <c r="Q37" s="32"/>
+      <c r="R37" s="33">
         <v>330</v>
       </c>
     </row>
@@ -4272,8 +4309,8 @@
       <c r="N38" s="13"/>
       <c r="O38" s="19"/>
       <c r="P38" s="13"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="34">
+      <c r="Q38" s="32"/>
+      <c r="R38" s="33">
         <v>222</v>
       </c>
     </row>
@@ -4312,8 +4349,8 @@
         <v>104</v>
       </c>
       <c r="P39" s="13"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="34">
+      <c r="Q39" s="32"/>
+      <c r="R39" s="33">
         <v>495</v>
       </c>
     </row>
@@ -4340,8 +4377,8 @@
       <c r="N40" s="13"/>
       <c r="O40" s="19"/>
       <c r="P40" s="13"/>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="34">
+      <c r="Q40" s="32"/>
+      <c r="R40" s="33">
         <v>193</v>
       </c>
     </row>
@@ -4368,8 +4405,8 @@
         <v>108</v>
       </c>
       <c r="P41" s="19"/>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="36">
+      <c r="Q41" s="34"/>
+      <c r="R41" s="35">
         <v>153</v>
       </c>
     </row>
@@ -4394,14 +4431,18 @@
       <c r="P42" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="37"/>
+      <c r="Q42" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="R42" s="36">
+        <v>163</v>
+      </c>
     </row>
     <row r="43" ht="40" customHeight="1" spans="1:18">
-      <c r="A43" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="B43" s="18"/>
+      <c r="A43" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="22"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
@@ -4411,22 +4452,138 @@
       <c r="I43" s="19"/>
       <c r="J43" s="19"/>
       <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
+      <c r="L43" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M43" s="12" t="s">
+        <v>112</v>
+      </c>
       <c r="N43" s="19"/>
       <c r="O43" s="19"/>
       <c r="P43" s="19"/>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="38">
-        <f>SUM(R4:R42)</f>
-        <v>13731.37</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="18:18">
-      <c r="R44" s="39"/>
-    </row>
-    <row r="47" customHeight="1" spans="18:18">
-      <c r="R47" s="39"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="36">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="44" ht="40" customHeight="1" spans="1:18">
+      <c r="A44" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="22"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O44" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="36">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="45" ht="40" customHeight="1" spans="1:18">
+      <c r="A45" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="22"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O45" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="P45" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q45" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="R45" s="36">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="46" ht="40" customHeight="1" spans="1:18">
+      <c r="A46" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="22"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q46" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="R46" s="36">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" ht="40" customHeight="1" spans="1:18">
+      <c r="A47" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" s="18"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="37">
+        <f>SUM(R4:R45)</f>
+        <v>16062.37</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="18:18">
+      <c r="R48" s="38"/>
+    </row>
+    <row r="51" customHeight="1" spans="18:18">
+      <c r="R51" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/fileHLC/可转债记录excel.xlsx
+++ b/fileHLC/可转债记录excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - 可转债" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="136">
   <si>
     <t>可转债</t>
   </si>
@@ -939,6 +939,66 @@
   <si>
     <t>2022/8/15
 500</t>
+  </si>
+  <si>
+    <t>常银转债
+2022/9/16</t>
+  </si>
+  <si>
+    <t>芳源转债
+2022/9/27</t>
+  </si>
+  <si>
+    <t>2022/11/8
+360</t>
+  </si>
+  <si>
+    <t>宙邦转债
+2022/9/28</t>
+  </si>
+  <si>
+    <t>2022/11/4
+294</t>
+  </si>
+  <si>
+    <t>泰福转债
+2022/9/29</t>
+  </si>
+  <si>
+    <t>2022/10/25
+215</t>
+  </si>
+  <si>
+    <t>2022/11/4
+202</t>
+  </si>
+  <si>
+    <t>锂科转债
+2022/10/13</t>
+  </si>
+  <si>
+    <t>强联转债
+2022/10/13</t>
+  </si>
+  <si>
+    <t>2022/10/27
+230</t>
+  </si>
+  <si>
+    <t>2022/10/27
+240</t>
+  </si>
+  <si>
+    <t>奕瑞转债
+2022/10/26</t>
+  </si>
+  <si>
+    <t>盛泰转债
+2022/11/8</t>
+  </si>
+  <si>
+    <t>立昂转债
+2022/11/16</t>
   </si>
   <si>
     <t>总合</t>
@@ -1827,7 +1887,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1897,6 +1957,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1937,6 +2000,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3115,14 +3184,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="D40" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q45" sqref="Q45"/>
+      <selection pane="bottomRight" activeCell="S55" sqref="S55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7142857142857" defaultRowHeight="13.9" customHeight="1"/>
@@ -3152,8 +3221,8 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
       <c r="R1" s="3"/>
     </row>
     <row r="2" ht="17" customHeight="1" spans="1:18">
@@ -3189,7 +3258,7 @@
       <c r="P2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="27"/>
+      <c r="Q2" s="28"/>
       <c r="R2" s="5" t="s">
         <v>9</v>
       </c>
@@ -3244,7 +3313,7 @@
       <c r="Q3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="28"/>
+      <c r="R3" s="29"/>
     </row>
     <row r="4" ht="40" customHeight="1" spans="1:18">
       <c r="A4" s="10" t="s">
@@ -3270,7 +3339,7 @@
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
-      <c r="R4" s="29">
+      <c r="R4" s="30">
         <v>-26.9</v>
       </c>
     </row>
@@ -3298,7 +3367,7 @@
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
-      <c r="R5" s="29">
+      <c r="R5" s="30">
         <v>82</v>
       </c>
     </row>
@@ -3330,7 +3399,7 @@
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
-      <c r="R6" s="29">
+      <c r="R6" s="30">
         <v>-147.85</v>
       </c>
     </row>
@@ -3358,7 +3427,7 @@
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
-      <c r="R7" s="29">
+      <c r="R7" s="30">
         <v>-51</v>
       </c>
     </row>
@@ -3386,7 +3455,7 @@
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
-      <c r="R8" s="29">
+      <c r="R8" s="30">
         <v>20</v>
       </c>
     </row>
@@ -3414,7 +3483,7 @@
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
-      <c r="R9" s="29">
+      <c r="R9" s="30">
         <v>104</v>
       </c>
     </row>
@@ -3442,7 +3511,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
-      <c r="R10" s="29">
+      <c r="R10" s="30">
         <v>660</v>
       </c>
     </row>
@@ -3470,7 +3539,7 @@
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
-      <c r="R11" s="30">
+      <c r="R11" s="31">
         <v>63</v>
       </c>
     </row>
@@ -3502,7 +3571,7 @@
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
-      <c r="R12" s="29">
+      <c r="R12" s="30">
         <v>821.58</v>
       </c>
     </row>
@@ -3534,7 +3603,7 @@
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
-      <c r="R13" s="29">
+      <c r="R13" s="30">
         <v>262</v>
       </c>
     </row>
@@ -3566,7 +3635,7 @@
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
-      <c r="R14" s="29">
+      <c r="R14" s="30">
         <v>999.9</v>
       </c>
     </row>
@@ -3594,7 +3663,7 @@
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
-      <c r="R15" s="29">
+      <c r="R15" s="30">
         <v>130</v>
       </c>
     </row>
@@ -3622,7 +3691,7 @@
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
-      <c r="R16" s="29">
+      <c r="R16" s="30">
         <v>300</v>
       </c>
     </row>
@@ -3658,7 +3727,7 @@
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
-      <c r="R17" s="29">
+      <c r="R17" s="30">
         <v>570</v>
       </c>
     </row>
@@ -3686,7 +3755,7 @@
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
-      <c r="R18" s="29">
+      <c r="R18" s="30">
         <v>151</v>
       </c>
     </row>
@@ -3718,7 +3787,7 @@
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
-      <c r="R19" s="29">
+      <c r="R19" s="30">
         <v>680</v>
       </c>
     </row>
@@ -3746,7 +3815,7 @@
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
-      <c r="R20" s="29">
+      <c r="R20" s="30">
         <v>320</v>
       </c>
     </row>
@@ -3802,7 +3871,7 @@
       </c>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
-      <c r="R22" s="29">
+      <c r="R22" s="30">
         <v>300</v>
       </c>
     </row>
@@ -3830,7 +3899,7 @@
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
-      <c r="R23" s="29">
+      <c r="R23" s="30">
         <v>310</v>
       </c>
     </row>
@@ -3973,7 +4042,7 @@
       <c r="N28" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O28" s="25" t="s">
+      <c r="O28" s="26" t="s">
         <v>71</v>
       </c>
       <c r="P28" s="13" t="s">
@@ -4035,10 +4104,10 @@
       <c r="P30" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Q30" s="26" t="s">
+      <c r="Q30" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="R30" s="31">
+      <c r="R30" s="32">
         <v>300</v>
       </c>
     </row>
@@ -4065,8 +4134,8 @@
       <c r="N31" s="19"/>
       <c r="O31" s="19"/>
       <c r="P31" s="13"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="33">
+      <c r="Q31" s="33"/>
+      <c r="R31" s="34">
         <v>180</v>
       </c>
     </row>
@@ -4117,8 +4186,8 @@
         <v>84</v>
       </c>
       <c r="P32" s="13"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="33">
+      <c r="Q32" s="33"/>
+      <c r="R32" s="34">
         <v>775.88</v>
       </c>
     </row>
@@ -4145,8 +4214,8 @@
       <c r="N33" s="13"/>
       <c r="O33" s="19"/>
       <c r="P33" s="13"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="33">
+      <c r="Q33" s="33"/>
+      <c r="R33" s="34">
         <v>308</v>
       </c>
     </row>
@@ -4194,7 +4263,7 @@
       <c r="Q34" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="R34" s="33">
+      <c r="R34" s="34">
         <v>1578</v>
       </c>
     </row>
@@ -4221,8 +4290,8 @@
       <c r="N35" s="13"/>
       <c r="O35" s="19"/>
       <c r="P35" s="13"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="33">
+      <c r="Q35" s="33"/>
+      <c r="R35" s="34">
         <v>274</v>
       </c>
     </row>
@@ -4249,8 +4318,8 @@
       <c r="N36" s="13"/>
       <c r="O36" s="19"/>
       <c r="P36" s="13"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="33">
+      <c r="Q36" s="33"/>
+      <c r="R36" s="34">
         <v>200</v>
       </c>
     </row>
@@ -4277,8 +4346,8 @@
       <c r="N37" s="13"/>
       <c r="O37" s="19"/>
       <c r="P37" s="13"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="33">
+      <c r="Q37" s="33"/>
+      <c r="R37" s="34">
         <v>330</v>
       </c>
     </row>
@@ -4309,8 +4378,8 @@
       <c r="N38" s="13"/>
       <c r="O38" s="19"/>
       <c r="P38" s="13"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="33">
+      <c r="Q38" s="33"/>
+      <c r="R38" s="34">
         <v>222</v>
       </c>
     </row>
@@ -4349,8 +4418,8 @@
         <v>104</v>
       </c>
       <c r="P39" s="13"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="33">
+      <c r="Q39" s="33"/>
+      <c r="R39" s="34">
         <v>495</v>
       </c>
     </row>
@@ -4369,7 +4438,7 @@
       <c r="J40" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K40" s="26" t="s">
+      <c r="K40" s="27" t="s">
         <v>106</v>
       </c>
       <c r="L40" s="13"/>
@@ -4377,8 +4446,8 @@
       <c r="N40" s="13"/>
       <c r="O40" s="19"/>
       <c r="P40" s="13"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="33">
+      <c r="Q40" s="33"/>
+      <c r="R40" s="34">
         <v>193</v>
       </c>
     </row>
@@ -4405,8 +4474,8 @@
         <v>108</v>
       </c>
       <c r="P41" s="19"/>
-      <c r="Q41" s="34"/>
-      <c r="R41" s="35">
+      <c r="Q41" s="35"/>
+      <c r="R41" s="36">
         <v>153</v>
       </c>
     </row>
@@ -4434,7 +4503,7 @@
       <c r="Q42" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="R42" s="36">
+      <c r="R42" s="37">
         <v>163</v>
       </c>
     </row>
@@ -4461,8 +4530,8 @@
       <c r="N43" s="19"/>
       <c r="O43" s="19"/>
       <c r="P43" s="19"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="36">
+      <c r="Q43" s="35"/>
+      <c r="R43" s="37">
         <v>315</v>
       </c>
     </row>
@@ -4489,8 +4558,8 @@
         <v>114</v>
       </c>
       <c r="P44" s="19"/>
-      <c r="Q44" s="34"/>
-      <c r="R44" s="36">
+      <c r="Q44" s="35"/>
+      <c r="R44" s="37">
         <v>1061</v>
       </c>
     </row>
@@ -4522,7 +4591,7 @@
       <c r="Q45" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="R45" s="36">
+      <c r="R45" s="37">
         <v>792</v>
       </c>
     </row>
@@ -4547,18 +4616,18 @@
       <c r="P46" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Q46" s="32" t="s">
+      <c r="Q46" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="R46" s="36">
+      <c r="R46" s="37">
         <v>500</v>
       </c>
     </row>
     <row r="47" ht="40" customHeight="1" spans="1:18">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B47" s="18"/>
+      <c r="B47" s="22"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
@@ -4568,22 +4637,264 @@
       <c r="I47" s="19"/>
       <c r="J47" s="19"/>
       <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
+      <c r="L47" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="M47" s="19"/>
       <c r="N47" s="19"/>
       <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="34"/>
-      <c r="R47" s="37">
-        <f>SUM(R4:R45)</f>
-        <v>16062.37</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="18:18">
-      <c r="R48" s="38"/>
-    </row>
-    <row r="51" customHeight="1" spans="18:18">
+      <c r="P47" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="38"/>
+    </row>
+    <row r="48" ht="40" customHeight="1" spans="1:18">
+      <c r="A48" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="22"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="38">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49" ht="40" customHeight="1" spans="1:18">
+      <c r="A49" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" s="22"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="38">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="50" ht="40" customHeight="1" spans="1:18">
+      <c r="A50" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q50" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="R50" s="38">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="51" ht="40" customHeight="1" spans="1:18">
+      <c r="A51" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="22"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="35"/>
       <c r="R51" s="38"/>
+    </row>
+    <row r="52" ht="40" customHeight="1" spans="1:18">
+      <c r="A52" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="22"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="L52" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M52" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="38">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="53" ht="40" customHeight="1" spans="1:18">
+      <c r="A53" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="23"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="39"/>
+    </row>
+    <row r="54" ht="40" customHeight="1" spans="1:18">
+      <c r="A54" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="23"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="35"/>
+      <c r="R54" s="39"/>
+    </row>
+    <row r="55" ht="40" customHeight="1" spans="1:18">
+      <c r="A55" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="23"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="39"/>
+    </row>
+    <row r="56" ht="40" customHeight="1" spans="1:18">
+      <c r="A56" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="35"/>
+      <c r="R56" s="40">
+        <f>SUM(R4:R53)</f>
+        <v>18103.37</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="18:18">
+      <c r="R57" s="41"/>
+    </row>
+    <row r="60" customHeight="1" spans="18:18">
+      <c r="R60" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/fileHLC/可转债记录excel.xlsx
+++ b/fileHLC/可转债记录excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12480"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - 可转债" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="142">
   <si>
     <t>可转债</t>
   </si>
@@ -945,6 +945,10 @@
 2022/9/16</t>
   </si>
   <si>
+    <t>2022/11/29
+170</t>
+  </si>
+  <si>
     <t>芳源转债
 2022/9/27</t>
   </si>
@@ -993,12 +997,32 @@
 2022/10/26</t>
   </si>
   <si>
+    <t>2022/12/1
+270</t>
+  </si>
+  <si>
     <t>盛泰转债
 2022/11/8</t>
   </si>
   <si>
+    <t>2022/12/1
+290</t>
+  </si>
+  <si>
     <t>立昂转债
 2022/11/16</t>
+  </si>
+  <si>
+    <t>南电转债
+2022/11/28</t>
+  </si>
+  <si>
+    <t>豪能转债
+2022/11/29</t>
+  </si>
+  <si>
+    <t>齐鲁转债
+2022/12/1</t>
   </si>
   <si>
     <t>总合</t>
@@ -1604,6 +1628,19 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -1611,19 +1648,6 @@
         <color indexed="10"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1887,7 +1911,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1957,9 +1981,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1972,6 +1993,9 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1984,16 +2008,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3184,14 +3205,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R60"/>
+  <dimension ref="A1:R63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S55" sqref="S55"/>
+      <selection pane="bottomRight" activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7142857142857" defaultRowHeight="13.9" customHeight="1"/>
@@ -3221,8 +3242,8 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
       <c r="R1" s="3"/>
     </row>
     <row r="2" ht="17" customHeight="1" spans="1:18">
@@ -4042,7 +4063,7 @@
       <c r="N28" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O28" s="26" t="s">
+      <c r="O28" s="25" t="s">
         <v>71</v>
       </c>
       <c r="P28" s="13" t="s">
@@ -4104,7 +4125,7 @@
       <c r="P30" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Q30" s="27" t="s">
+      <c r="Q30" s="26" t="s">
         <v>75</v>
       </c>
       <c r="R30" s="32">
@@ -4134,8 +4155,8 @@
       <c r="N31" s="19"/>
       <c r="O31" s="19"/>
       <c r="P31" s="13"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="34">
+      <c r="Q31" s="27"/>
+      <c r="R31" s="33">
         <v>180</v>
       </c>
     </row>
@@ -4186,8 +4207,8 @@
         <v>84</v>
       </c>
       <c r="P32" s="13"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="34">
+      <c r="Q32" s="27"/>
+      <c r="R32" s="33">
         <v>775.88</v>
       </c>
     </row>
@@ -4214,8 +4235,8 @@
       <c r="N33" s="13"/>
       <c r="O33" s="19"/>
       <c r="P33" s="13"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="34">
+      <c r="Q33" s="27"/>
+      <c r="R33" s="33">
         <v>308</v>
       </c>
     </row>
@@ -4263,7 +4284,7 @@
       <c r="Q34" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="R34" s="34">
+      <c r="R34" s="33">
         <v>1578</v>
       </c>
     </row>
@@ -4290,8 +4311,8 @@
       <c r="N35" s="13"/>
       <c r="O35" s="19"/>
       <c r="P35" s="13"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="34">
+      <c r="Q35" s="27"/>
+      <c r="R35" s="33">
         <v>274</v>
       </c>
     </row>
@@ -4318,8 +4339,8 @@
       <c r="N36" s="13"/>
       <c r="O36" s="19"/>
       <c r="P36" s="13"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="34">
+      <c r="Q36" s="27"/>
+      <c r="R36" s="33">
         <v>200</v>
       </c>
     </row>
@@ -4346,8 +4367,8 @@
       <c r="N37" s="13"/>
       <c r="O37" s="19"/>
       <c r="P37" s="13"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="34">
+      <c r="Q37" s="27"/>
+      <c r="R37" s="33">
         <v>330</v>
       </c>
     </row>
@@ -4378,8 +4399,8 @@
       <c r="N38" s="13"/>
       <c r="O38" s="19"/>
       <c r="P38" s="13"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="34">
+      <c r="Q38" s="27"/>
+      <c r="R38" s="33">
         <v>222</v>
       </c>
     </row>
@@ -4418,8 +4439,8 @@
         <v>104</v>
       </c>
       <c r="P39" s="13"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="34">
+      <c r="Q39" s="27"/>
+      <c r="R39" s="33">
         <v>495</v>
       </c>
     </row>
@@ -4438,7 +4459,7 @@
       <c r="J40" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K40" s="27" t="s">
+      <c r="K40" s="26" t="s">
         <v>106</v>
       </c>
       <c r="L40" s="13"/>
@@ -4446,8 +4467,8 @@
       <c r="N40" s="13"/>
       <c r="O40" s="19"/>
       <c r="P40" s="13"/>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="34">
+      <c r="Q40" s="27"/>
+      <c r="R40" s="33">
         <v>193</v>
       </c>
     </row>
@@ -4474,8 +4495,8 @@
         <v>108</v>
       </c>
       <c r="P41" s="19"/>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="36">
+      <c r="Q41" s="34"/>
+      <c r="R41" s="35">
         <v>153</v>
       </c>
     </row>
@@ -4503,7 +4524,7 @@
       <c r="Q42" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="R42" s="37">
+      <c r="R42" s="36">
         <v>163</v>
       </c>
     </row>
@@ -4530,8 +4551,8 @@
       <c r="N43" s="19"/>
       <c r="O43" s="19"/>
       <c r="P43" s="19"/>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="37">
+      <c r="Q43" s="34"/>
+      <c r="R43" s="36">
         <v>315</v>
       </c>
     </row>
@@ -4558,8 +4579,8 @@
         <v>114</v>
       </c>
       <c r="P44" s="19"/>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="37">
+      <c r="Q44" s="34"/>
+      <c r="R44" s="36">
         <v>1061</v>
       </c>
     </row>
@@ -4591,7 +4612,7 @@
       <c r="Q45" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="R45" s="37">
+      <c r="R45" s="36">
         <v>792</v>
       </c>
     </row>
@@ -4616,10 +4637,10 @@
       <c r="P46" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Q46" s="33" t="s">
+      <c r="Q46" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="R46" s="37">
+      <c r="R46" s="36">
         <v>500</v>
       </c>
     </row>
@@ -4640,18 +4661,24 @@
       <c r="L47" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M47" s="19"/>
+      <c r="M47" s="27" t="s">
+        <v>121</v>
+      </c>
       <c r="N47" s="19"/>
       <c r="O47" s="19"/>
       <c r="P47" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Q47" s="35"/>
-      <c r="R47" s="38"/>
+      <c r="Q47" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="R47" s="37">
+        <v>340</v>
+      </c>
     </row>
     <row r="48" ht="40" customHeight="1" spans="1:18">
       <c r="A48" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B48" s="22"/>
       <c r="C48" s="19"/>
@@ -4663,7 +4690,7 @@
         <v>13</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J48" s="19"/>
       <c r="K48" s="19"/>
@@ -4672,14 +4699,14 @@
       <c r="N48" s="19"/>
       <c r="O48" s="19"/>
       <c r="P48" s="19"/>
-      <c r="Q48" s="35"/>
-      <c r="R48" s="38">
+      <c r="Q48" s="34"/>
+      <c r="R48" s="37">
         <v>360</v>
       </c>
     </row>
     <row r="49" ht="40" customHeight="1" spans="1:18">
       <c r="A49" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B49" s="22"/>
       <c r="C49" s="19"/>
@@ -4691,7 +4718,7 @@
         <v>13</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J49" s="19"/>
       <c r="K49" s="19"/>
@@ -4700,20 +4727,20 @@
       <c r="N49" s="19"/>
       <c r="O49" s="19"/>
       <c r="P49" s="19"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="38">
+      <c r="Q49" s="34"/>
+      <c r="R49" s="37">
         <v>294</v>
       </c>
     </row>
     <row r="50" ht="40" customHeight="1" spans="1:18">
       <c r="A50" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
@@ -4731,15 +4758,15 @@
         <v>13</v>
       </c>
       <c r="Q50" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="R50" s="38">
+        <v>128</v>
+      </c>
+      <c r="R50" s="37">
         <v>417</v>
       </c>
     </row>
     <row r="51" ht="40" customHeight="1" spans="1:18">
       <c r="A51" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B51" s="22"/>
       <c r="C51" s="19"/>
@@ -4758,12 +4785,12 @@
       <c r="N51" s="19"/>
       <c r="O51" s="19"/>
       <c r="P51" s="19"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="38"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="37"/>
     </row>
     <row r="52" ht="40" customHeight="1" spans="1:18">
       <c r="A52" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B52" s="22"/>
       <c r="C52" s="19"/>
@@ -4777,27 +4804,27 @@
         <v>13</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L52" s="13" t="s">
         <v>13</v>
       </c>
       <c r="M52" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N52" s="19"/>
       <c r="O52" s="19"/>
       <c r="P52" s="19"/>
-      <c r="Q52" s="35"/>
-      <c r="R52" s="38">
+      <c r="Q52" s="34"/>
+      <c r="R52" s="37">
         <v>470</v>
       </c>
     </row>
     <row r="53" ht="40" customHeight="1" spans="1:18">
       <c r="A53" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B53" s="23"/>
+        <v>133</v>
+      </c>
+      <c r="B53" s="22"/>
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
@@ -4810,18 +4837,22 @@
       <c r="L53" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M53" s="19"/>
+      <c r="M53" s="12" t="s">
+        <v>134</v>
+      </c>
       <c r="N53" s="19"/>
       <c r="O53" s="19"/>
       <c r="P53" s="19"/>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="39"/>
+      <c r="Q53" s="34"/>
+      <c r="R53" s="37">
+        <v>270</v>
+      </c>
     </row>
     <row r="54" ht="40" customHeight="1" spans="1:18">
       <c r="A54" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B54" s="23"/>
+        <v>135</v>
+      </c>
+      <c r="B54" s="22"/>
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
@@ -4832,20 +4863,24 @@
       <c r="J54" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K54" s="19"/>
+      <c r="K54" s="12" t="s">
+        <v>136</v>
+      </c>
       <c r="L54" s="19"/>
       <c r="M54" s="19"/>
       <c r="N54" s="19"/>
       <c r="O54" s="19"/>
       <c r="P54" s="13"/>
-      <c r="Q54" s="35"/>
-      <c r="R54" s="39"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="37">
+        <v>290</v>
+      </c>
     </row>
     <row r="55" ht="40" customHeight="1" spans="1:18">
       <c r="A55" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B55" s="23"/>
+        <v>137</v>
+      </c>
+      <c r="B55" s="22"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
@@ -4862,14 +4897,14 @@
       <c r="P55" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Q55" s="35"/>
-      <c r="R55" s="39"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="37"/>
     </row>
     <row r="56" ht="40" customHeight="1" spans="1:18">
-      <c r="A56" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="B56" s="18"/>
+      <c r="A56" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" s="22"/>
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
       <c r="E56" s="19"/>
@@ -4879,22 +4914,102 @@
       <c r="I56" s="19"/>
       <c r="J56" s="19"/>
       <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
+      <c r="L56" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="M56" s="19"/>
       <c r="N56" s="19"/>
       <c r="O56" s="19"/>
       <c r="P56" s="19"/>
-      <c r="Q56" s="35"/>
-      <c r="R56" s="40">
-        <f>SUM(R4:R53)</f>
-        <v>18103.37</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="18:18">
-      <c r="R57" s="41"/>
+      <c r="Q56" s="34"/>
+      <c r="R56" s="37"/>
+    </row>
+    <row r="57" ht="40" customHeight="1" spans="1:18">
+      <c r="A57" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" s="22"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="37"/>
+    </row>
+    <row r="58" ht="40" customHeight="1" spans="1:18">
+      <c r="A58" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M58" s="19"/>
+      <c r="N58" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O58" s="19"/>
+      <c r="P58" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="38"/>
+    </row>
+    <row r="59" ht="40" customHeight="1" spans="1:18">
+      <c r="A59" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="34"/>
+      <c r="R59" s="39">
+        <f>SUM(R4:R58)</f>
+        <v>19003.37</v>
+      </c>
     </row>
     <row r="60" customHeight="1" spans="18:18">
-      <c r="R60" s="41"/>
+      <c r="R60" s="40"/>
+    </row>
+    <row r="63" customHeight="1" spans="18:18">
+      <c r="R63" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/fileHLC/可转债记录excel.xlsx
+++ b/fileHLC/可转债记录excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="171">
   <si>
     <t>可转债</t>
   </si>
@@ -981,6 +981,10 @@
 2022/10/13</t>
   </si>
   <si>
+    <t>2023/4/18
+241</t>
+  </si>
+  <si>
     <t>强联转债
 2022/10/13</t>
   </si>
@@ -1013,16 +1017,128 @@
 2022/11/16</t>
   </si>
   <si>
+    <t>2023/3/15
+324</t>
+  </si>
+  <si>
     <t>南电转债
 2022/11/28</t>
   </si>
   <si>
+    <t>2022/12/16
+210</t>
+  </si>
+  <si>
     <t>豪能转债
 2022/11/29</t>
   </si>
   <si>
+    <t>2023/1/30
+300</t>
+  </si>
+  <si>
     <t>齐鲁转债
 2022/12/1</t>
+  </si>
+  <si>
+    <t>2023/4/27
+-13.3</t>
+  </si>
+  <si>
+    <t>2023/1/18
+0</t>
+  </si>
+  <si>
+    <t>2023/5/8
+0</t>
+  </si>
+  <si>
+    <t>合力转债
+2022/12/15</t>
+  </si>
+  <si>
+    <t>2023/1/6
+230</t>
+  </si>
+  <si>
+    <t>睿创转债
+2022/1/4</t>
+  </si>
+  <si>
+    <t>2023/2/10
+450</t>
+  </si>
+  <si>
+    <t>天合转债
+2023/2/15</t>
+  </si>
+  <si>
+    <t>2023/3/17
+162</t>
+  </si>
+  <si>
+    <t>中旗转债
+2023/3/7</t>
+  </si>
+  <si>
+    <t>2023/4/27
+230</t>
+  </si>
+  <si>
+    <t>花园转债
+2023/3/8</t>
+  </si>
+  <si>
+    <t>2023/4/10
+236</t>
+  </si>
+  <si>
+    <t>神马转债
+2023/3/20</t>
+  </si>
+  <si>
+    <t>2023/4/20
+192</t>
+  </si>
+  <si>
+    <t>海顺转债
+2023/3/27</t>
+  </si>
+  <si>
+    <t>2023/4/20
+202</t>
+  </si>
+  <si>
+    <t>山路转债
+2023/3/28</t>
+  </si>
+  <si>
+    <t>2023/4/27
+182</t>
+  </si>
+  <si>
+    <t>柳工转债
+2023/3/28</t>
+  </si>
+  <si>
+    <t>2023/4/20
+182</t>
+  </si>
+  <si>
+    <t>能辉转债
+2023/4/04</t>
+  </si>
+  <si>
+    <t>道氏转债
+2023/4/11</t>
+  </si>
+  <si>
+    <t>晶能转债
+2023/4/24</t>
+  </si>
+  <si>
+    <t>2023/5/24
+212</t>
   </si>
   <si>
     <t>总合</t>
@@ -1911,7 +2027,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1981,9 +2097,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2026,7 +2139,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3205,14 +3318,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R63"/>
+  <dimension ref="A1:R75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B61" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G58" sqref="G58"/>
+      <selection pane="bottomRight" activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7142857142857" defaultRowHeight="13.9" customHeight="1"/>
@@ -3242,8 +3355,8 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
       <c r="R1" s="3"/>
     </row>
     <row r="2" ht="17" customHeight="1" spans="1:18">
@@ -3279,7 +3392,7 @@
       <c r="P2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="28"/>
+      <c r="Q2" s="27"/>
       <c r="R2" s="5" t="s">
         <v>9</v>
       </c>
@@ -3334,7 +3447,7 @@
       <c r="Q3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="29"/>
+      <c r="R3" s="28"/>
     </row>
     <row r="4" ht="40" customHeight="1" spans="1:18">
       <c r="A4" s="10" t="s">
@@ -3360,7 +3473,7 @@
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
-      <c r="R4" s="30">
+      <c r="R4" s="29">
         <v>-26.9</v>
       </c>
     </row>
@@ -3388,7 +3501,7 @@
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
-      <c r="R5" s="30">
+      <c r="R5" s="29">
         <v>82</v>
       </c>
     </row>
@@ -3420,7 +3533,7 @@
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
-      <c r="R6" s="30">
+      <c r="R6" s="29">
         <v>-147.85</v>
       </c>
     </row>
@@ -3448,7 +3561,7 @@
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
-      <c r="R7" s="30">
+      <c r="R7" s="29">
         <v>-51</v>
       </c>
     </row>
@@ -3476,7 +3589,7 @@
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
-      <c r="R8" s="30">
+      <c r="R8" s="29">
         <v>20</v>
       </c>
     </row>
@@ -3504,7 +3617,7 @@
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
-      <c r="R9" s="30">
+      <c r="R9" s="29">
         <v>104</v>
       </c>
     </row>
@@ -3532,7 +3645,7 @@
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
-      <c r="R10" s="30">
+      <c r="R10" s="29">
         <v>660</v>
       </c>
     </row>
@@ -3560,7 +3673,7 @@
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
-      <c r="R11" s="31">
+      <c r="R11" s="30">
         <v>63</v>
       </c>
     </row>
@@ -3592,7 +3705,7 @@
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
-      <c r="R12" s="30">
+      <c r="R12" s="29">
         <v>821.58</v>
       </c>
     </row>
@@ -3624,7 +3737,7 @@
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
-      <c r="R13" s="30">
+      <c r="R13" s="29">
         <v>262</v>
       </c>
     </row>
@@ -3656,7 +3769,7 @@
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
-      <c r="R14" s="30">
+      <c r="R14" s="29">
         <v>999.9</v>
       </c>
     </row>
@@ -3684,7 +3797,7 @@
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
-      <c r="R15" s="30">
+      <c r="R15" s="29">
         <v>130</v>
       </c>
     </row>
@@ -3712,7 +3825,7 @@
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
-      <c r="R16" s="30">
+      <c r="R16" s="29">
         <v>300</v>
       </c>
     </row>
@@ -3748,7 +3861,7 @@
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
-      <c r="R17" s="30">
+      <c r="R17" s="29">
         <v>570</v>
       </c>
     </row>
@@ -3776,7 +3889,7 @@
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
-      <c r="R18" s="30">
+      <c r="R18" s="29">
         <v>151</v>
       </c>
     </row>
@@ -3808,7 +3921,7 @@
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
-      <c r="R19" s="30">
+      <c r="R19" s="29">
         <v>680</v>
       </c>
     </row>
@@ -3836,7 +3949,7 @@
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
-      <c r="R20" s="30">
+      <c r="R20" s="29">
         <v>320</v>
       </c>
     </row>
@@ -3892,7 +4005,7 @@
       </c>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
-      <c r="R22" s="30">
+      <c r="R22" s="29">
         <v>300</v>
       </c>
     </row>
@@ -3920,7 +4033,7 @@
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
-      <c r="R23" s="30">
+      <c r="R23" s="29">
         <v>310</v>
       </c>
     </row>
@@ -4063,7 +4176,7 @@
       <c r="N28" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O28" s="25" t="s">
+      <c r="O28" s="24" t="s">
         <v>71</v>
       </c>
       <c r="P28" s="13" t="s">
@@ -4125,10 +4238,10 @@
       <c r="P30" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Q30" s="26" t="s">
+      <c r="Q30" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="R30" s="32">
+      <c r="R30" s="31">
         <v>300</v>
       </c>
     </row>
@@ -4155,8 +4268,8 @@
       <c r="N31" s="19"/>
       <c r="O31" s="19"/>
       <c r="P31" s="13"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="33">
+      <c r="Q31" s="26"/>
+      <c r="R31" s="32">
         <v>180</v>
       </c>
     </row>
@@ -4207,8 +4320,8 @@
         <v>84</v>
       </c>
       <c r="P32" s="13"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="33">
+      <c r="Q32" s="26"/>
+      <c r="R32" s="32">
         <v>775.88</v>
       </c>
     </row>
@@ -4235,8 +4348,8 @@
       <c r="N33" s="13"/>
       <c r="O33" s="19"/>
       <c r="P33" s="13"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="33">
+      <c r="Q33" s="26"/>
+      <c r="R33" s="32">
         <v>308</v>
       </c>
     </row>
@@ -4284,7 +4397,7 @@
       <c r="Q34" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="R34" s="33">
+      <c r="R34" s="32">
         <v>1578</v>
       </c>
     </row>
@@ -4311,8 +4424,8 @@
       <c r="N35" s="13"/>
       <c r="O35" s="19"/>
       <c r="P35" s="13"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="33">
+      <c r="Q35" s="26"/>
+      <c r="R35" s="32">
         <v>274</v>
       </c>
     </row>
@@ -4339,8 +4452,8 @@
       <c r="N36" s="13"/>
       <c r="O36" s="19"/>
       <c r="P36" s="13"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="33">
+      <c r="Q36" s="26"/>
+      <c r="R36" s="32">
         <v>200</v>
       </c>
     </row>
@@ -4367,8 +4480,8 @@
       <c r="N37" s="13"/>
       <c r="O37" s="19"/>
       <c r="P37" s="13"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="33">
+      <c r="Q37" s="26"/>
+      <c r="R37" s="32">
         <v>330</v>
       </c>
     </row>
@@ -4399,8 +4512,8 @@
       <c r="N38" s="13"/>
       <c r="O38" s="19"/>
       <c r="P38" s="13"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="33">
+      <c r="Q38" s="26"/>
+      <c r="R38" s="32">
         <v>222</v>
       </c>
     </row>
@@ -4439,8 +4552,8 @@
         <v>104</v>
       </c>
       <c r="P39" s="13"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="33">
+      <c r="Q39" s="26"/>
+      <c r="R39" s="32">
         <v>495</v>
       </c>
     </row>
@@ -4459,7 +4572,7 @@
       <c r="J40" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K40" s="26" t="s">
+      <c r="K40" s="25" t="s">
         <v>106</v>
       </c>
       <c r="L40" s="13"/>
@@ -4467,8 +4580,8 @@
       <c r="N40" s="13"/>
       <c r="O40" s="19"/>
       <c r="P40" s="13"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="33">
+      <c r="Q40" s="26"/>
+      <c r="R40" s="32">
         <v>193</v>
       </c>
     </row>
@@ -4495,8 +4608,8 @@
         <v>108</v>
       </c>
       <c r="P41" s="19"/>
-      <c r="Q41" s="34"/>
-      <c r="R41" s="35">
+      <c r="Q41" s="33"/>
+      <c r="R41" s="34">
         <v>153</v>
       </c>
     </row>
@@ -4524,7 +4637,7 @@
       <c r="Q42" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="R42" s="36">
+      <c r="R42" s="35">
         <v>163</v>
       </c>
     </row>
@@ -4551,8 +4664,8 @@
       <c r="N43" s="19"/>
       <c r="O43" s="19"/>
       <c r="P43" s="19"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="36">
+      <c r="Q43" s="33"/>
+      <c r="R43" s="35">
         <v>315</v>
       </c>
     </row>
@@ -4579,8 +4692,8 @@
         <v>114</v>
       </c>
       <c r="P44" s="19"/>
-      <c r="Q44" s="34"/>
-      <c r="R44" s="36">
+      <c r="Q44" s="33"/>
+      <c r="R44" s="35">
         <v>1061</v>
       </c>
     </row>
@@ -4612,7 +4725,7 @@
       <c r="Q45" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="R45" s="36">
+      <c r="R45" s="35">
         <v>792</v>
       </c>
     </row>
@@ -4637,10 +4750,10 @@
       <c r="P46" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Q46" s="27" t="s">
+      <c r="Q46" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="R46" s="36">
+      <c r="R46" s="35">
         <v>500</v>
       </c>
     </row>
@@ -4661,7 +4774,7 @@
       <c r="L47" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M47" s="27" t="s">
+      <c r="M47" s="26" t="s">
         <v>121</v>
       </c>
       <c r="N47" s="19"/>
@@ -4669,10 +4782,10 @@
       <c r="P47" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Q47" s="27" t="s">
+      <c r="Q47" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="R47" s="37">
+      <c r="R47" s="36">
         <v>340</v>
       </c>
     </row>
@@ -4699,8 +4812,8 @@
       <c r="N48" s="19"/>
       <c r="O48" s="19"/>
       <c r="P48" s="19"/>
-      <c r="Q48" s="34"/>
-      <c r="R48" s="37">
+      <c r="Q48" s="33"/>
+      <c r="R48" s="36">
         <v>360</v>
       </c>
     </row>
@@ -4727,8 +4840,8 @@
       <c r="N49" s="19"/>
       <c r="O49" s="19"/>
       <c r="P49" s="19"/>
-      <c r="Q49" s="34"/>
-      <c r="R49" s="37">
+      <c r="Q49" s="33"/>
+      <c r="R49" s="36">
         <v>294</v>
       </c>
     </row>
@@ -4760,7 +4873,7 @@
       <c r="Q50" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="R50" s="37">
+      <c r="R50" s="36">
         <v>417</v>
       </c>
     </row>
@@ -4773,7 +4886,9 @@
       <c r="D51" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="19"/>
+      <c r="E51" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
       <c r="H51" s="19"/>
@@ -4785,12 +4900,14 @@
       <c r="N51" s="19"/>
       <c r="O51" s="19"/>
       <c r="P51" s="19"/>
-      <c r="Q51" s="34"/>
-      <c r="R51" s="37"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="36">
+        <v>241</v>
+      </c>
     </row>
     <row r="52" ht="40" customHeight="1" spans="1:18">
       <c r="A52" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B52" s="22"/>
       <c r="C52" s="19"/>
@@ -4804,25 +4921,25 @@
         <v>13</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L52" s="13" t="s">
         <v>13</v>
       </c>
       <c r="M52" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N52" s="19"/>
       <c r="O52" s="19"/>
       <c r="P52" s="19"/>
-      <c r="Q52" s="34"/>
-      <c r="R52" s="37">
+      <c r="Q52" s="33"/>
+      <c r="R52" s="36">
         <v>470</v>
       </c>
     </row>
     <row r="53" ht="40" customHeight="1" spans="1:18">
       <c r="A53" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B53" s="22"/>
       <c r="C53" s="19"/>
@@ -4838,19 +4955,19 @@
         <v>13</v>
       </c>
       <c r="M53" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N53" s="19"/>
       <c r="O53" s="19"/>
       <c r="P53" s="19"/>
-      <c r="Q53" s="34"/>
-      <c r="R53" s="37">
+      <c r="Q53" s="33"/>
+      <c r="R53" s="36">
         <v>270</v>
       </c>
     </row>
     <row r="54" ht="40" customHeight="1" spans="1:18">
       <c r="A54" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B54" s="22"/>
       <c r="C54" s="19"/>
@@ -4864,21 +4981,21 @@
         <v>13</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L54" s="19"/>
       <c r="M54" s="19"/>
       <c r="N54" s="19"/>
       <c r="O54" s="19"/>
       <c r="P54" s="13"/>
-      <c r="Q54" s="34"/>
-      <c r="R54" s="37">
+      <c r="Q54" s="33"/>
+      <c r="R54" s="36">
         <v>290</v>
       </c>
     </row>
     <row r="55" ht="40" customHeight="1" spans="1:18">
       <c r="A55" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B55" s="22"/>
       <c r="C55" s="19"/>
@@ -4897,12 +5014,16 @@
       <c r="P55" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Q55" s="34"/>
-      <c r="R55" s="37"/>
+      <c r="Q55" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="R55" s="36">
+        <v>324</v>
+      </c>
     </row>
     <row r="56" ht="40" customHeight="1" spans="1:18">
       <c r="A56" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B56" s="22"/>
       <c r="C56" s="19"/>
@@ -4917,16 +5038,20 @@
       <c r="L56" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M56" s="19"/>
+      <c r="M56" s="12" t="s">
+        <v>141</v>
+      </c>
       <c r="N56" s="19"/>
       <c r="O56" s="19"/>
       <c r="P56" s="19"/>
-      <c r="Q56" s="34"/>
-      <c r="R56" s="37"/>
+      <c r="Q56" s="33"/>
+      <c r="R56" s="36">
+        <v>210</v>
+      </c>
     </row>
     <row r="57" ht="40" customHeight="1" spans="1:18">
       <c r="A57" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B57" s="22"/>
       <c r="C57" s="19"/>
@@ -4935,7 +5060,9 @@
       <c r="F57" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G57" s="19"/>
+      <c r="G57" s="12" t="s">
+        <v>143</v>
+      </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="19"/>
@@ -4945,23 +5072,29 @@
       <c r="N57" s="19"/>
       <c r="O57" s="19"/>
       <c r="P57" s="19"/>
-      <c r="Q57" s="34"/>
-      <c r="R57" s="37"/>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="36">
+        <v>300</v>
+      </c>
     </row>
     <row r="58" ht="40" customHeight="1" spans="1:18">
       <c r="A58" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="19"/>
+      <c r="C58" s="12" t="s">
+        <v>145</v>
+      </c>
       <c r="D58" s="19"/>
       <c r="E58" s="19"/>
       <c r="F58" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G58" s="19"/>
+      <c r="G58" s="12" t="s">
+        <v>146</v>
+      </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="19"/>
@@ -4969,29 +5102,41 @@
       <c r="L58" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M58" s="19"/>
+      <c r="M58" s="12" t="s">
+        <v>147</v>
+      </c>
       <c r="N58" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O58" s="19"/>
+      <c r="O58" s="12" t="s">
+        <v>147</v>
+      </c>
       <c r="P58" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Q58" s="34"/>
-      <c r="R58" s="38"/>
+      <c r="Q58" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="R58" s="36">
+        <v>-13</v>
+      </c>
     </row>
     <row r="59" ht="40" customHeight="1" spans="1:18">
-      <c r="A59" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="B59" s="18"/>
+      <c r="A59" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="22"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
       <c r="F59" s="19"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
+      <c r="H59" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>149</v>
+      </c>
       <c r="J59" s="19"/>
       <c r="K59" s="19"/>
       <c r="L59" s="19"/>
@@ -4999,17 +5144,349 @@
       <c r="N59" s="19"/>
       <c r="O59" s="19"/>
       <c r="P59" s="19"/>
-      <c r="Q59" s="34"/>
-      <c r="R59" s="39">
-        <f>SUM(R4:R58)</f>
-        <v>19003.37</v>
-      </c>
-    </row>
-    <row r="60" customHeight="1" spans="18:18">
-      <c r="R60" s="40"/>
-    </row>
-    <row r="63" customHeight="1" spans="18:18">
-      <c r="R63" s="40"/>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="36">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="60" ht="40" customHeight="1" spans="1:18">
+      <c r="A60" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" s="22"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M60" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="33"/>
+      <c r="R60" s="36">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="61" ht="40" customHeight="1" spans="1:18">
+      <c r="A61" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" s="22"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O61" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="33"/>
+      <c r="R61" s="36">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" ht="40" customHeight="1" spans="1:18">
+      <c r="A62" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B62" s="22"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="33"/>
+      <c r="R62" s="36">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="63" ht="40" customHeight="1" spans="1:18">
+      <c r="A63" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="33"/>
+      <c r="R63" s="36">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="64" ht="40" customHeight="1" spans="1:18">
+      <c r="A64" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B64" s="22"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
+      <c r="P64" s="19"/>
+      <c r="Q64" s="33"/>
+      <c r="R64" s="36">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="65" ht="40" customHeight="1" spans="1:18">
+      <c r="A65" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B65" s="22"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="19"/>
+      <c r="P65" s="19"/>
+      <c r="Q65" s="33"/>
+      <c r="R65" s="36">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66" ht="40" customHeight="1" spans="1:18">
+      <c r="A66" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B66" s="22"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="19"/>
+      <c r="P66" s="19"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="36">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" ht="40" customHeight="1" spans="1:18">
+      <c r="A67" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="19"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="33"/>
+      <c r="R67" s="36">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="68" ht="40" customHeight="1" spans="1:18">
+      <c r="A68" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="19">
+        <v>126</v>
+      </c>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="19"/>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="33"/>
+      <c r="R68" s="36"/>
+    </row>
+    <row r="69" ht="40" customHeight="1" spans="1:18">
+      <c r="A69" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" s="22"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="19">
+        <v>118</v>
+      </c>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="19"/>
+      <c r="P69" s="19"/>
+      <c r="Q69" s="33"/>
+      <c r="R69" s="36"/>
+    </row>
+    <row r="70" ht="40" customHeight="1" spans="1:18">
+      <c r="A70" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B70" s="22"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O70" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="P70" s="19"/>
+      <c r="Q70" s="33"/>
+      <c r="R70" s="36">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="71" ht="40" customHeight="1" spans="1:18">
+      <c r="A71" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="19"/>
+      <c r="P71" s="19"/>
+      <c r="Q71" s="33"/>
+      <c r="R71" s="38">
+        <f>SUM(R4:R70)</f>
+        <v>22555.37</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="18:18">
+      <c r="R72" s="39"/>
+    </row>
+    <row r="75" customHeight="1" spans="18:18">
+      <c r="R75" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5024,7 +5501,7 @@
     <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <pageSetup paperSize="1" scale="25" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/fileHLC/可转债记录excel.xlsx
+++ b/fileHLC/可转债记录excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowHeight="25000"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - 可转债" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="175">
   <si>
     <t>可转债</t>
   </si>
@@ -1129,16 +1129,32 @@
 2023/4/04</t>
   </si>
   <si>
+    <t>2023/6/15
+300</t>
+  </si>
+  <si>
     <t>道氏转债
 2023/4/11</t>
   </si>
   <si>
+    <t>2023/7/13
+104</t>
+  </si>
+  <si>
     <t>晶能转债
 2023/4/24</t>
   </si>
   <si>
     <t>2023/5/24
 212</t>
+  </si>
+  <si>
+    <t>众和转债
+2023/7/19</t>
+  </si>
+  <si>
+    <t>晶澳转债
+2023/7/19</t>
   </si>
   <si>
     <t>总合</t>
@@ -1150,9 +1166,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1213,28 +1229,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1242,22 +1237,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1272,7 +1251,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1281,6 +1283,21 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1295,6 +1312,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
@@ -1302,40 +1334,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1350,14 +1350,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1414,6 +1430,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1426,121 +1586,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1552,43 +1598,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1780,17 +1796,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1810,24 +1844,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1843,26 +1859,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1877,157 +1878,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2070,15 +2086,15 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2088,58 +2104,64 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2151,54 +2173,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2508,7 +2530,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -3067,7 +3089,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -3318,23 +3340,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R75"/>
+  <dimension ref="A1:R79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H69" sqref="H69"/>
+      <selection pane="bottomRight" activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7142857142857" defaultRowHeight="13.9" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.7142857142857" style="1" customWidth="1"/>
-    <col min="2" max="8" width="16.352380952381" style="1" customWidth="1"/>
-    <col min="9" max="17" width="16.1714285714286" style="1" customWidth="1"/>
-    <col min="18" max="243" width="16.352380952381" style="1" customWidth="1"/>
-    <col min="244" max="244" width="16.352380952381"/>
+    <col min="2" max="8" width="16.3482142857143" style="1" customWidth="1"/>
+    <col min="9" max="17" width="16.1696428571429" style="1" customWidth="1"/>
+    <col min="18" max="243" width="16.3482142857143" style="1" customWidth="1"/>
+    <col min="244" max="244" width="16.3482142857143"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1" spans="1:18">
@@ -3355,8 +3377,8 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
       <c r="R1" s="3"/>
     </row>
     <row r="2" ht="17" customHeight="1" spans="1:18">
@@ -3397,7 +3419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="12.75" spans="1:18">
+    <row r="3" ht="16" spans="1:18">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
@@ -3463,16 +3485,16 @@
       <c r="G4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
       <c r="R4" s="29">
         <v>-26.9</v>
       </c>
@@ -3490,17 +3512,17 @@
         <v>16</v>
       </c>
       <c r="F5" s="12"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
       <c r="R5" s="29">
         <v>82</v>
       </c>
@@ -3509,7 +3531,7 @@
       <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -3523,16 +3545,16 @@
       <c r="G6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
       <c r="R6" s="29">
         <v>-147.85</v>
       </c>
@@ -3551,16 +3573,16 @@
       <c r="G7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
       <c r="R7" s="29">
         <v>-51</v>
       </c>
@@ -3569,26 +3591,26 @@
       <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="B8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
       <c r="R8" s="29">
         <v>20</v>
       </c>
@@ -3598,11 +3620,11 @@
         <v>24</v>
       </c>
       <c r="B9" s="17"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="13" t="s">
         <v>13</v>
       </c>
@@ -3625,26 +3647,26 @@
       <c r="A10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
       <c r="R10" s="29">
         <v>660</v>
       </c>
@@ -3660,7 +3682,7 @@
       <c r="F11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="22" t="s">
         <v>29</v>
       </c>
       <c r="H11" s="19"/>
@@ -3713,7 +3735,7 @@
       <c r="A13" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -3805,7 +3827,7 @@
       <c r="A16" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -3833,7 +3855,7 @@
       <c r="A17" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -3897,7 +3919,7 @@
       <c r="A19" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -4101,7 +4123,7 @@
       <c r="A26" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="15"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="19"/>
       <c r="D26" s="13" t="s">
         <v>13</v>
@@ -4133,7 +4155,7 @@
       <c r="A27" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="15"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="19"/>
       <c r="D27" s="13"/>
       <c r="E27" s="19"/>
@@ -4176,7 +4198,7 @@
       <c r="N28" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O28" s="24" t="s">
+      <c r="O28" s="25" t="s">
         <v>71</v>
       </c>
       <c r="P28" s="13" t="s">
@@ -4238,7 +4260,7 @@
       <c r="P30" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Q30" s="25" t="s">
+      <c r="Q30" s="23" t="s">
         <v>75</v>
       </c>
       <c r="R30" s="31">
@@ -4329,7 +4351,7 @@
       <c r="A33" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="21"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="19"/>
       <c r="D33" s="13" t="s">
         <v>13</v>
@@ -4433,7 +4455,7 @@
       <c r="A36" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="21"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="19"/>
       <c r="D36" s="13"/>
       <c r="E36" s="19"/>
@@ -4489,7 +4511,7 @@
       <c r="A38" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B38" s="21"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="19"/>
       <c r="D38" s="13"/>
       <c r="E38" s="19"/>
@@ -4521,7 +4543,7 @@
       <c r="A39" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="21"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="19"/>
       <c r="D39" s="13" t="s">
         <v>13</v>
@@ -4561,7 +4583,7 @@
       <c r="A40" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B40" s="21"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="19"/>
       <c r="D40" s="13"/>
       <c r="E40" s="19"/>
@@ -4572,7 +4594,7 @@
       <c r="J40" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K40" s="25" t="s">
+      <c r="K40" s="23" t="s">
         <v>106</v>
       </c>
       <c r="L40" s="13"/>
@@ -4589,7 +4611,7 @@
       <c r="A41" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B41" s="22"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
@@ -4617,7 +4639,7 @@
       <c r="A42" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B42" s="22"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
@@ -4645,7 +4667,7 @@
       <c r="A43" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B43" s="22"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
@@ -4673,7 +4695,7 @@
       <c r="A44" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B44" s="22"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
@@ -4701,7 +4723,7 @@
       <c r="A45" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B45" s="22"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
@@ -4733,7 +4755,7 @@
       <c r="A46" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B46" s="22"/>
+      <c r="B46" s="21"/>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
@@ -4761,7 +4783,7 @@
       <c r="A47" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B47" s="22"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
@@ -4793,7 +4815,7 @@
       <c r="A48" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B48" s="22"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
@@ -4821,7 +4843,7 @@
       <c r="A49" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B49" s="22"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
@@ -4881,7 +4903,7 @@
       <c r="A51" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B51" s="22"/>
+      <c r="B51" s="21"/>
       <c r="C51" s="19"/>
       <c r="D51" s="13" t="s">
         <v>13</v>
@@ -4909,7 +4931,7 @@
       <c r="A52" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B52" s="22"/>
+      <c r="B52" s="21"/>
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
@@ -4941,7 +4963,7 @@
       <c r="A53" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B53" s="22"/>
+      <c r="B53" s="21"/>
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
@@ -4969,7 +4991,7 @@
       <c r="A54" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B54" s="22"/>
+      <c r="B54" s="21"/>
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
@@ -4997,7 +5019,7 @@
       <c r="A55" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B55" s="22"/>
+      <c r="B55" s="21"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
@@ -5025,7 +5047,7 @@
       <c r="A56" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B56" s="22"/>
+      <c r="B56" s="21"/>
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
       <c r="E56" s="19"/>
@@ -5053,7 +5075,7 @@
       <c r="A57" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B57" s="22"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
@@ -5125,7 +5147,7 @@
       <c r="A59" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B59" s="22"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
@@ -5153,7 +5175,7 @@
       <c r="A60" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B60" s="22"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
@@ -5181,7 +5203,7 @@
       <c r="A61" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B61" s="22"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
@@ -5209,7 +5231,7 @@
       <c r="A62" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B62" s="22"/>
+      <c r="B62" s="21"/>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
@@ -5265,7 +5287,7 @@
       <c r="A64" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B64" s="22"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
       <c r="E64" s="19"/>
@@ -5293,7 +5315,7 @@
       <c r="A65" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B65" s="22"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
@@ -5321,7 +5343,7 @@
       <c r="A66" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B66" s="22"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
@@ -5380,8 +5402,8 @@
       <c r="B68" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="19">
-        <v>126</v>
+      <c r="C68" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
@@ -5397,21 +5419,23 @@
       <c r="O68" s="19"/>
       <c r="P68" s="19"/>
       <c r="Q68" s="33"/>
-      <c r="R68" s="36"/>
+      <c r="R68" s="36">
+        <v>300</v>
+      </c>
     </row>
     <row r="69" ht="40" customHeight="1" spans="1:18">
       <c r="A69" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B69" s="22"/>
+        <v>168</v>
+      </c>
+      <c r="B69" s="21"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
       <c r="F69" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G69" s="19">
-        <v>118</v>
+      <c r="G69" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -5423,13 +5447,15 @@
       <c r="O69" s="19"/>
       <c r="P69" s="19"/>
       <c r="Q69" s="33"/>
-      <c r="R69" s="36"/>
+      <c r="R69" s="36">
+        <v>104</v>
+      </c>
     </row>
     <row r="70" ht="40" customHeight="1" spans="1:18">
       <c r="A70" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B70" s="22"/>
+        <v>170</v>
+      </c>
+      <c r="B70" s="21"/>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
       <c r="E70" s="19"/>
@@ -5437,7 +5463,7 @@
         <v>13</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -5449,7 +5475,7 @@
         <v>13</v>
       </c>
       <c r="O70" s="12" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P70" s="19"/>
       <c r="Q70" s="33"/>
@@ -5458,10 +5484,10 @@
       </c>
     </row>
     <row r="71" ht="40" customHeight="1" spans="1:18">
-      <c r="A71" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="B71" s="18"/>
+      <c r="A71" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" s="37"/>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
@@ -5475,18 +5501,110 @@
       <c r="M71" s="19"/>
       <c r="N71" s="19"/>
       <c r="O71" s="19"/>
-      <c r="P71" s="19"/>
+      <c r="P71" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="Q71" s="33"/>
-      <c r="R71" s="38">
+      <c r="R71" s="39"/>
+    </row>
+    <row r="72" ht="40" customHeight="1" spans="1:18">
+      <c r="A72" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B72" s="37"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="19"/>
+      <c r="F72" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="33"/>
+      <c r="R72" s="39"/>
+    </row>
+    <row r="73" ht="40" customHeight="1" spans="1:18">
+      <c r="A73" s="10"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="19"/>
+      <c r="P73" s="19"/>
+      <c r="Q73" s="33"/>
+      <c r="R73" s="39"/>
+    </row>
+    <row r="74" ht="40" customHeight="1" spans="1:18">
+      <c r="A74" s="10"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="19"/>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="33"/>
+      <c r="R74" s="39"/>
+    </row>
+    <row r="75" ht="40" customHeight="1" spans="1:18">
+      <c r="A75" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="B75" s="18"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="19"/>
+      <c r="L75" s="19"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="19"/>
+      <c r="O75" s="19"/>
+      <c r="P75" s="19"/>
+      <c r="Q75" s="33"/>
+      <c r="R75" s="40">
         <f>SUM(R4:R70)</f>
-        <v>22555.37</v>
-      </c>
-    </row>
-    <row r="72" customHeight="1" spans="18:18">
-      <c r="R72" s="39"/>
-    </row>
-    <row r="75" customHeight="1" spans="18:18">
-      <c r="R75" s="39"/>
+        <v>22959.37</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="18:18">
+      <c r="R76" s="41"/>
+    </row>
+    <row r="79" customHeight="1" spans="18:18">
+      <c r="R79" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/fileHLC/可转债记录excel.xlsx
+++ b/fileHLC/可转债记录excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="25000"/>
+    <workbookView windowWidth="28000" windowHeight="11920"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - 可转债" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="176">
   <si>
     <t>可转债</t>
   </si>
@@ -1157,6 +1157,10 @@
 2023/7/19</t>
   </si>
   <si>
+    <t>孩王转债
+2023/7/26</t>
+  </si>
+  <si>
     <t>总合</t>
   </si>
 </sst>
@@ -1165,10 +1169,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1236,7 +1240,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1250,31 +1254,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1297,15 +1294,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1320,22 +1345,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1349,31 +1367,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1430,13 +1434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1460,7 +1458,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1472,37 +1560,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1514,79 +1590,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1598,19 +1608,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1814,17 +1818,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1844,30 +1872,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1879,17 +1883,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1898,152 +1902,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2155,13 +2159,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3343,11 +3341,11 @@
   <dimension ref="A1:R79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F72" sqref="F72"/>
+      <selection pane="bottomRight" activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7142857142857" defaultRowHeight="13.9" customHeight="1"/>
@@ -5487,7 +5485,7 @@
       <c r="A71" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B71" s="37"/>
+      <c r="B71" s="21"/>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
@@ -5505,13 +5503,13 @@
         <v>13</v>
       </c>
       <c r="Q71" s="33"/>
-      <c r="R71" s="39"/>
+      <c r="R71" s="36"/>
     </row>
     <row r="72" ht="40" customHeight="1" spans="1:18">
       <c r="A72" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B72" s="37"/>
+      <c r="B72" s="21"/>
       <c r="C72" s="19"/>
       <c r="D72" s="13" t="s">
         <v>13</v>
@@ -5533,11 +5531,15 @@
       <c r="O72" s="19"/>
       <c r="P72" s="19"/>
       <c r="Q72" s="33"/>
-      <c r="R72" s="39"/>
+      <c r="R72" s="36"/>
     </row>
     <row r="73" ht="40" customHeight="1" spans="1:18">
-      <c r="A73" s="10"/>
-      <c r="B73" s="37"/>
+      <c r="A73" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
@@ -5553,11 +5555,11 @@
       <c r="O73" s="19"/>
       <c r="P73" s="19"/>
       <c r="Q73" s="33"/>
-      <c r="R73" s="39"/>
+      <c r="R73" s="36"/>
     </row>
     <row r="74" ht="40" customHeight="1" spans="1:18">
       <c r="A74" s="10"/>
-      <c r="B74" s="37"/>
+      <c r="B74" s="21"/>
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
@@ -5573,11 +5575,11 @@
       <c r="O74" s="19"/>
       <c r="P74" s="19"/>
       <c r="Q74" s="33"/>
-      <c r="R74" s="39"/>
+      <c r="R74" s="36"/>
     </row>
     <row r="75" ht="40" customHeight="1" spans="1:18">
-      <c r="A75" s="38" t="s">
-        <v>174</v>
+      <c r="A75" s="37" t="s">
+        <v>175</v>
       </c>
       <c r="B75" s="18"/>
       <c r="C75" s="19"/>
@@ -5595,16 +5597,16 @@
       <c r="O75" s="19"/>
       <c r="P75" s="19"/>
       <c r="Q75" s="33"/>
-      <c r="R75" s="40">
+      <c r="R75" s="38">
         <f>SUM(R4:R70)</f>
         <v>22959.37</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="18:18">
-      <c r="R76" s="41"/>
+      <c r="R76" s="39"/>
     </row>
     <row r="79" customHeight="1" spans="18:18">
-      <c r="R79" s="41"/>
+      <c r="R79" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/fileHLC/可转债记录excel.xlsx
+++ b/fileHLC/可转债记录excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11920"/>
+    <workbookView windowHeight="11920"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - 可转债" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="182">
   <si>
     <t>可转债</t>
   </si>
@@ -1153,12 +1153,36 @@
 2023/7/19</t>
   </si>
   <si>
+    <t>2023/09/1
+261</t>
+  </si>
+  <si>
     <t>晶澳转债
 2023/7/19</t>
   </si>
   <si>
+    <t>2023/8/7
+170</t>
+  </si>
+  <si>
     <t>孩王转债
 2023/7/26</t>
+  </si>
+  <si>
+    <t>科数转债
+2023/8/25</t>
+  </si>
+  <si>
+    <t>2023/9/12
+223</t>
+  </si>
+  <si>
+    <t>翔丰转债
+2023/10/12</t>
+  </si>
+  <si>
+    <t>2023/10/27
+200</t>
   </si>
   <si>
     <t>总合</t>
@@ -1170,9 +1194,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1246,6 +1270,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1254,11 +1285,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1269,9 +1315,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1285,30 +1330,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1322,8 +1346,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1338,7 +1371,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1352,8 +1385,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1362,22 +1402,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1440,7 +1464,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1452,7 +1500,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1464,13 +1626,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1482,139 +1638,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1842,6 +1866,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1882,162 +1921,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2047,7 +2071,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2159,7 +2183,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3338,14 +3368,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R79"/>
+  <dimension ref="A1:R82"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B73" sqref="B73"/>
+      <selection pane="bottomRight" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7142857142857" defaultRowHeight="13.9" customHeight="1"/>
@@ -5502,23 +5532,31 @@
       <c r="P71" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Q71" s="33"/>
-      <c r="R71" s="36"/>
+      <c r="Q71" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="R71" s="36">
+        <v>261</v>
+      </c>
     </row>
     <row r="72" ht="40" customHeight="1" spans="1:18">
       <c r="A72" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B72" s="21"/>
       <c r="C72" s="19"/>
       <c r="D72" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E72" s="19"/>
+      <c r="E72" s="12" t="s">
+        <v>175</v>
+      </c>
       <c r="F72" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G72" s="19"/>
+      <c r="G72" s="12" t="s">
+        <v>175</v>
+      </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
       <c r="J72" s="19"/>
@@ -5526,16 +5564,20 @@
       <c r="L72" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M72" s="19"/>
+      <c r="M72" s="12" t="s">
+        <v>175</v>
+      </c>
       <c r="N72" s="19"/>
       <c r="O72" s="19"/>
       <c r="P72" s="19"/>
       <c r="Q72" s="33"/>
-      <c r="R72" s="36"/>
+      <c r="R72" s="36">
+        <v>510</v>
+      </c>
     </row>
     <row r="73" ht="40" customHeight="1" spans="1:18">
       <c r="A73" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B73" s="13" t="s">
         <v>13</v>
@@ -5558,11 +5600,17 @@
       <c r="R73" s="36"/>
     </row>
     <row r="74" ht="40" customHeight="1" spans="1:18">
-      <c r="A74" s="10"/>
+      <c r="A74" s="10" t="s">
+        <v>177</v>
+      </c>
       <c r="B74" s="21"/>
       <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
+      <c r="D74" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>178</v>
+      </c>
       <c r="F74" s="19"/>
       <c r="G74" s="19"/>
       <c r="H74" s="19"/>
@@ -5578,14 +5626,16 @@
       <c r="R74" s="36"/>
     </row>
     <row r="75" ht="40" customHeight="1" spans="1:18">
-      <c r="A75" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="B75" s="18"/>
+      <c r="A75" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B75" s="37"/>
       <c r="C75" s="19"/>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
+      <c r="F75" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G75" s="19"/>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -5593,20 +5643,86 @@
       <c r="K75" s="19"/>
       <c r="L75" s="19"/>
       <c r="M75" s="19"/>
-      <c r="N75" s="19"/>
-      <c r="O75" s="19"/>
+      <c r="N75" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O75" s="12" t="s">
+        <v>180</v>
+      </c>
       <c r="P75" s="19"/>
       <c r="Q75" s="33"/>
-      <c r="R75" s="38">
+      <c r="R75" s="39"/>
+    </row>
+    <row r="76" ht="40" customHeight="1" spans="1:18">
+      <c r="A76" s="38"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="19"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="19"/>
+      <c r="O76" s="19"/>
+      <c r="P76" s="19"/>
+      <c r="Q76" s="33"/>
+      <c r="R76" s="39"/>
+    </row>
+    <row r="77" ht="40" customHeight="1" spans="1:18">
+      <c r="A77" s="38"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="19"/>
+      <c r="O77" s="19"/>
+      <c r="P77" s="19"/>
+      <c r="Q77" s="33"/>
+      <c r="R77" s="39"/>
+    </row>
+    <row r="78" ht="40" customHeight="1" spans="1:18">
+      <c r="A78" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="19"/>
+      <c r="L78" s="19"/>
+      <c r="M78" s="19"/>
+      <c r="N78" s="19"/>
+      <c r="O78" s="19"/>
+      <c r="P78" s="19"/>
+      <c r="Q78" s="33"/>
+      <c r="R78" s="40">
         <f>SUM(R4:R70)</f>
         <v>22959.37</v>
       </c>
     </row>
-    <row r="76" customHeight="1" spans="18:18">
-      <c r="R76" s="39"/>
-    </row>
     <row r="79" customHeight="1" spans="18:18">
-      <c r="R79" s="39"/>
+      <c r="R79" s="41"/>
+    </row>
+    <row r="82" customHeight="1" spans="18:18">
+      <c r="R82" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/fileHLC/可转债记录excel.xlsx
+++ b/fileHLC/可转债记录excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="11920"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - 可转债" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="184">
   <si>
     <t>可转债</t>
   </si>
@@ -1169,6 +1169,10 @@
 2023/7/26</t>
   </si>
   <si>
+    <t>2023/11/4
+132</t>
+  </si>
+  <si>
     <t>科数转债
 2023/8/25</t>
   </si>
@@ -1179,6 +1183,10 @@
   <si>
     <t>翔丰转债
 2023/10/12</t>
+  </si>
+  <si>
+    <t>2023/11/6
+242</t>
   </si>
   <si>
     <t>2023/10/27
@@ -1194,9 +1202,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1270,18 +1278,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1292,9 +1330,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1308,33 +1346,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1348,7 +1364,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1356,7 +1372,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1369,39 +1408,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1464,6 +1472,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1476,67 +1508,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1554,7 +1526,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1566,19 +1616,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1590,55 +1640,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1852,16 +1860,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1881,17 +1889,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1910,137 +1929,126 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2049,19 +2057,19 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2071,7 +2079,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2183,13 +2191,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3371,11 +3373,11 @@
   <dimension ref="A1:R82"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="D66" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F74" sqref="F74"/>
+      <selection pane="bottomRight" activeCell="O74" sqref="O74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7142857142857" defaultRowHeight="13.9" customHeight="1"/>
@@ -5582,7 +5584,9 @@
       <c r="B73" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C73" s="19"/>
+      <c r="C73" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
       <c r="F73" s="19"/>
@@ -5597,11 +5601,13 @@
       <c r="O73" s="19"/>
       <c r="P73" s="19"/>
       <c r="Q73" s="33"/>
-      <c r="R73" s="36"/>
+      <c r="R73" s="36">
+        <v>132</v>
+      </c>
     </row>
     <row r="74" ht="40" customHeight="1" spans="1:18">
       <c r="A74" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B74" s="21"/>
       <c r="C74" s="19"/>
@@ -5609,7 +5615,7 @@
         <v>13</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F74" s="19"/>
       <c r="G74" s="19"/>
@@ -5623,20 +5629,24 @@
       <c r="O74" s="19"/>
       <c r="P74" s="19"/>
       <c r="Q74" s="33"/>
-      <c r="R74" s="36"/>
+      <c r="R74" s="36">
+        <v>223</v>
+      </c>
     </row>
     <row r="75" ht="40" customHeight="1" spans="1:18">
       <c r="A75" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="B75" s="37"/>
+        <v>180</v>
+      </c>
+      <c r="B75" s="21"/>
       <c r="C75" s="19"/>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
       <c r="F75" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G75" s="19"/>
+      <c r="G75" s="12" t="s">
+        <v>181</v>
+      </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
       <c r="J75" s="19"/>
@@ -5647,15 +5657,17 @@
         <v>13</v>
       </c>
       <c r="O75" s="12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P75" s="19"/>
       <c r="Q75" s="33"/>
-      <c r="R75" s="39"/>
+      <c r="R75" s="36">
+        <v>442</v>
+      </c>
     </row>
     <row r="76" ht="40" customHeight="1" spans="1:18">
-      <c r="A76" s="38"/>
-      <c r="B76" s="37"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="21"/>
       <c r="C76" s="19"/>
       <c r="D76" s="19"/>
       <c r="E76" s="19"/>
@@ -5671,11 +5683,11 @@
       <c r="O76" s="19"/>
       <c r="P76" s="19"/>
       <c r="Q76" s="33"/>
-      <c r="R76" s="39"/>
+      <c r="R76" s="36"/>
     </row>
     <row r="77" ht="40" customHeight="1" spans="1:18">
-      <c r="A77" s="38"/>
-      <c r="B77" s="37"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="21"/>
       <c r="C77" s="19"/>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
@@ -5691,11 +5703,11 @@
       <c r="O77" s="19"/>
       <c r="P77" s="19"/>
       <c r="Q77" s="33"/>
-      <c r="R77" s="39"/>
+      <c r="R77" s="36"/>
     </row>
     <row r="78" ht="40" customHeight="1" spans="1:18">
-      <c r="A78" s="38" t="s">
-        <v>181</v>
+      <c r="A78" s="37" t="s">
+        <v>183</v>
       </c>
       <c r="B78" s="18"/>
       <c r="C78" s="19"/>
@@ -5713,16 +5725,16 @@
       <c r="O78" s="19"/>
       <c r="P78" s="19"/>
       <c r="Q78" s="33"/>
-      <c r="R78" s="40">
-        <f>SUM(R4:R70)</f>
-        <v>22959.37</v>
+      <c r="R78" s="38">
+        <f>SUM(R4:R75)</f>
+        <v>24527.37</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="18:18">
-      <c r="R79" s="41"/>
+      <c r="R79" s="39"/>
     </row>
     <row r="82" customHeight="1" spans="18:18">
-      <c r="R82" s="41"/>
+      <c r="R82" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="9">
